--- a/backend/temp2.xlsx
+++ b/backend/temp2.xlsx
@@ -561,20 +561,60 @@
         <v>32</v>
       </c>
       <c r="D14" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E14" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F14" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="15">
       <c r="C15" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D15" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E15" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F15" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D16" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E16" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F16" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G16" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E17" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F17" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G17" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -586,20 +626,60 @@
         <v>-8</v>
       </c>
       <c r="D19" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E19" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F19" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="20">
       <c r="C20" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D20" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E20" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F20" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D21" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E21" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F21" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G21" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D22" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E22" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F22" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G22" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -611,20 +691,60 @@
         <v>-8</v>
       </c>
       <c r="D24" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E24" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F24" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="25">
       <c r="C25" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D25" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E25" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F25" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D26" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E26" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F26" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G26" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D27" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E27" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F27" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G27" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -636,20 +756,60 @@
         <v>-8</v>
       </c>
       <c r="D29" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E29" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F29" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="30">
       <c r="C30" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D30" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E30" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F30" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D31" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E31" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F31" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G31" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D32" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E32" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F32" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G32" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -661,20 +821,60 @@
         <v>-8</v>
       </c>
       <c r="D34" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E34" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F34" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="35">
       <c r="C35" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D35" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E35" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F35" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D36" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E36" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F36" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G36" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D37" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E37" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F37" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G37" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -686,20 +886,60 @@
         <v>-8</v>
       </c>
       <c r="D39" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E39" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F39" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="40">
       <c r="C40" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D40" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E40" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F40" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D41" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E41" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F41" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G41" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D42" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E42" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F42" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G42" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -711,20 +951,60 @@
         <v>-8</v>
       </c>
       <c r="D44" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E44" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F44" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="45">
       <c r="C45" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D45" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E45" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F45" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D46" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E46" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F46" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G46" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D47" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E47" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F47" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G47" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -736,20 +1016,60 @@
         <v>-8</v>
       </c>
       <c r="D49" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E49" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F49" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="50">
       <c r="C50" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D50" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E50" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F50" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D51" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E51" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F51" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G51" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D52" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E52" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F52" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G52" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -761,20 +1081,60 @@
         <v>-8</v>
       </c>
       <c r="D54" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E54" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F54" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="55">
       <c r="C55" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D55" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E55" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F55" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D56" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E56" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F56" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G56" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D57" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E57" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F57" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G57" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -786,20 +1146,60 @@
         <v>-8</v>
       </c>
       <c r="D59" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E59" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F59" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="60">
       <c r="C60" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D60" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E60" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F60" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D61" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E61" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F61" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G61" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D62" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E62" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F62" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G62" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -811,20 +1211,60 @@
         <v>-8</v>
       </c>
       <c r="D64" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E64" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F64" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="65">
       <c r="C65" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D65" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E65" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F65" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D66" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E66" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F66" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G66" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D67" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E67" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F67" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G67" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -836,10 +1276,13 @@
         <v>-8</v>
       </c>
       <c r="D69" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E69" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F69" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="70">
@@ -847,12 +1290,49 @@
         <v>elo</v>
       </c>
       <c r="C70" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D70" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E70" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F70" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D71" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E71" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F71" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G71" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="72">
+      <c r="C72" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D72" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E72" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F72" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G72" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -864,20 +1344,60 @@
         <v>-8</v>
       </c>
       <c r="D74" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E74" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F74" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="75">
       <c r="C75" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D75" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E75" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F75" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="C76" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D76" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E76" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F76" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G76" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="77">
+      <c r="C77" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D77" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E77" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F77" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G77" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -889,20 +1409,60 @@
         <v>-8</v>
       </c>
       <c r="D79" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E79" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F79" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="80">
       <c r="C80" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D80" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E80" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F80" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="C81" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D81" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E81" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F81" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G81" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="82">
+      <c r="C82" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D82" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E82" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F82" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G82" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -914,20 +1474,60 @@
         <v>-8</v>
       </c>
       <c r="D84" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E84" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F84" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="85">
       <c r="C85" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D85" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E85" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F85" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="C86" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D86" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E86" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F86" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G86" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="87">
+      <c r="C87" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D87" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E87" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F87" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G87" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -939,20 +1539,60 @@
         <v>-8</v>
       </c>
       <c r="D89" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E89" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F89" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="90">
       <c r="C90" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D90" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E90" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F90" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="C91" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D91" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E91" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F91" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G91" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="92">
+      <c r="C92" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D92" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E92" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F92" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G92" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -964,20 +1604,60 @@
         <v>-8</v>
       </c>
       <c r="D94" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E94" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F94" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="95">
       <c r="C95" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D95" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E95" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F95" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="C96" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D96" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E96" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F96" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G96" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="97">
+      <c r="C97" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D97" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E97" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F97" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G97" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -989,20 +1669,60 @@
         <v>-8</v>
       </c>
       <c r="D99" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E99" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F99" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="100">
       <c r="C100" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D100" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E100" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F100" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="C101" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D101" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E101" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F101" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G101" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="102">
+      <c r="C102" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D102" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E102" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F102" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G102" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -1014,20 +1734,60 @@
         <v>-8</v>
       </c>
       <c r="D104" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E104" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F104" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="105">
       <c r="C105" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D105" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E105" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F105" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="C106" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D106" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E106" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F106" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G106" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="107">
+      <c r="C107" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D107" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E107" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F107" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G107" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -1039,20 +1799,60 @@
         <v>-8</v>
       </c>
       <c r="D109" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E109" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F109" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="110">
       <c r="C110" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D110" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E110" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F110" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="C111" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D111" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E111" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F111" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G111" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="112">
+      <c r="C112" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D112" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E112" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F112" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G112" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -1064,20 +1864,60 @@
         <v>-8</v>
       </c>
       <c r="D114" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E114" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F114" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="115">
       <c r="C115" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D115" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E115" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F115" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="C116" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D116" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E116" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F116" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G116" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="117">
+      <c r="C117" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D117" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E117" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F117" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G117" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -1089,20 +1929,60 @@
         <v>-8</v>
       </c>
       <c r="D119" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E119" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F119" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="120">
       <c r="C120" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D120" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E120" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F120" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="C121" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D121" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E121" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F121" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G121" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="122">
+      <c r="C122" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D122" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E122" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F122" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G122" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -1114,20 +1994,60 @@
         <v>-8</v>
       </c>
       <c r="D124" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E124" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F124" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="125">
       <c r="C125" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D125" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E125" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F125" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="C126" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D126" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E126" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F126" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G126" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="127">
+      <c r="C127" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D127" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E127" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F127" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G127" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -1139,20 +2059,60 @@
         <v>-8</v>
       </c>
       <c r="D129" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E129" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F129" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="130">
       <c r="C130" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D130" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E130" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F130" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="C131" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D131" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E131" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F131" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G131" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="132">
+      <c r="C132" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D132" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E132" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F132" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G132" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -1164,20 +2124,60 @@
         <v>-8</v>
       </c>
       <c r="D134" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E134" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F134" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="135">
       <c r="C135" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D135" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E135" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F135" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="C136" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D136" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E136" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F136" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G136" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="137">
+      <c r="C137" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D137" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E137" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F137" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G137" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -1189,20 +2189,60 @@
         <v>-8</v>
       </c>
       <c r="D139" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E139" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F139" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="140">
       <c r="C140" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D140" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E140" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F140" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="C141" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D141" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E141" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F141" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G141" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="142">
+      <c r="C142" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D142" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E142" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F142" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G142" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -1214,20 +2254,60 @@
         <v>-8</v>
       </c>
       <c r="D144" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E144" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F144" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="145">
       <c r="C145" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D145" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E145" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F145" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="C146" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D146" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E146" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F146" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G146" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="147">
+      <c r="C147" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D147" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E147" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F147" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G147" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -1239,20 +2319,60 @@
         <v>-8</v>
       </c>
       <c r="D149" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E149" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F149" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="150">
       <c r="C150" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D150" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E150" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F150" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="C151" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D151" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E151" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F151" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G151" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="152">
+      <c r="C152" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D152" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E152" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F152" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G152" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -1264,20 +2384,60 @@
         <v>-8</v>
       </c>
       <c r="D154" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E154" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F154" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="155">
       <c r="C155" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D155" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E155" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F155" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="C156" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D156" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E156" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F156" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G156" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="157">
+      <c r="C157" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D157" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E157" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F157" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G157" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -1289,20 +2449,60 @@
         <v>42</v>
       </c>
       <c r="D159" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E159" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F159" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="160">
       <c r="C160" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D160" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E160" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F160" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="C161" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D161" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E161" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F161" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G161" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="162">
+      <c r="C162" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D162" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E162" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F162" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G162" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -1314,20 +2514,60 @@
         <v>-8</v>
       </c>
       <c r="D164" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E164" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F164" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="165">
       <c r="C165" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D165" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E165" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F165" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="C166" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D166" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E166" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F166" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G166" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="167">
+      <c r="C167" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D167" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E167" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F167" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G167" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -1339,20 +2579,60 @@
         <v>-8</v>
       </c>
       <c r="D169" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E169" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F169" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="170">
       <c r="C170" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D170" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E170" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F170" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="C171" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D171" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E171" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F171" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G171" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="172">
+      <c r="C172" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D172" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E172" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F172" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G172" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -1364,20 +2644,60 @@
         <v>-8</v>
       </c>
       <c r="D174" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E174" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F174" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="175">
       <c r="C175" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D175" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E175" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F175" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="C176" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D176" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E176" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F176" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G176" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="177">
+      <c r="C177" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D177" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E177" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F177" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G177" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -1389,20 +2709,60 @@
         <v>-8</v>
       </c>
       <c r="D179" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E179" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F179" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="180">
       <c r="C180" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D180" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E180" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F180" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="C181" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D181" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E181" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F181" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G181" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="182">
+      <c r="C182" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D182" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E182" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F182" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G182" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -1414,20 +2774,60 @@
         <v>-8</v>
       </c>
       <c r="D184" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E184" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F184" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="185">
       <c r="C185" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D185" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E185" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F185" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="C186" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D186" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E186" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F186" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G186" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="187">
+      <c r="C187" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D187" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E187" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F187" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G187" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -1439,20 +2839,60 @@
         <v>23</v>
       </c>
       <c r="D189" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E189" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F189" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="190">
       <c r="C190" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D190" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E190" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F190" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="C191" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D191" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E191" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F191" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G191" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="192">
+      <c r="C192" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D192" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E192" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F192" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G192" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -1464,20 +2904,60 @@
         <v>-8</v>
       </c>
       <c r="D194" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E194" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F194" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="195">
       <c r="C195" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D195" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E195" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F195" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="C196" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D196" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E196" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F196" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G196" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="197">
+      <c r="C197" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D197" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E197" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F197" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G197" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -1489,20 +2969,60 @@
         <v>-8</v>
       </c>
       <c r="D199" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E199" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F199" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="200">
       <c r="C200" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D200" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E200" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F200" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="C201" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D201" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E201" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F201" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G201" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="202">
+      <c r="C202" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D202" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E202" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F202" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G202" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -1514,20 +3034,60 @@
         <v>-8</v>
       </c>
       <c r="D204" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E204" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F204" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="205">
       <c r="C205" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D205" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E205" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F205" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="C206" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D206" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E206" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F206" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G206" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="207">
+      <c r="C207" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D207" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E207" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F207" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G207" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -1539,20 +3099,60 @@
         <v>-8</v>
       </c>
       <c r="D209" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E209" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F209" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="210">
       <c r="C210" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D210" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E210" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F210" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="C211" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D211" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E211" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F211" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G211" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="212">
+      <c r="C212" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D212" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E212" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F212" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G212" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -1564,20 +3164,60 @@
         <v>-8</v>
       </c>
       <c r="D214" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E214" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F214" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="215">
       <c r="C215" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D215" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E215" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F215" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="C216" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D216" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E216" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F216" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G216" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="217">
+      <c r="C217" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D217" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E217" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F217" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G217" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -1589,20 +3229,60 @@
         <v>-8</v>
       </c>
       <c r="D219" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E219" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F219" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="220">
       <c r="C220" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D220" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E220" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F220" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="C221" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D221" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E221" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F221" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G221" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="222">
+      <c r="C222" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D222" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E222" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F222" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G222" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -1614,20 +3294,60 @@
         <v>-8</v>
       </c>
       <c r="D224" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E224" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F224" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="225">
       <c r="C225" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D225" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E225" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F225" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="C226" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D226" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E226" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F226" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G226" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="227">
+      <c r="C227" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D227" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E227" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F227" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G227" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -1639,20 +3359,60 @@
         <v>-8</v>
       </c>
       <c r="D229" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E229" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F229" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="230">
       <c r="C230" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D230" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E230" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F230" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="C231" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D231" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E231" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F231" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G231" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="232">
+      <c r="C232" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D232" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E232" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F232" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G232" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -1664,20 +3424,60 @@
         <v>-8</v>
       </c>
       <c r="D234" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E234" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F234" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="235">
       <c r="C235" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D235" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E235" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F235" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="C236" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D236" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E236" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F236" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G236" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="237">
+      <c r="C237" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D237" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E237" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F237" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G237" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -1689,20 +3489,60 @@
         <v>-8</v>
       </c>
       <c r="D239" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E239" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F239" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="240">
       <c r="C240" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D240" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E240" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F240" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="C241" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D241" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E241" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F241" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G241" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="242">
+      <c r="C242" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D242" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E242" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F242" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G242" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -1714,20 +3554,60 @@
         <v>-8</v>
       </c>
       <c r="D244" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E244" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F244" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="245">
       <c r="C245" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D245" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E245" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F245" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="C246" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D246" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E246" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F246" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G246" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="247">
+      <c r="C247" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D247" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E247" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F247" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G247" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -1739,20 +3619,60 @@
         <v>-8</v>
       </c>
       <c r="D249" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E249" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F249" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="250">
       <c r="C250" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D250" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E250" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F250" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="C251" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D251" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E251" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F251" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G251" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="252">
+      <c r="C252" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D252" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E252" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F252" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G252" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -1764,20 +3684,60 @@
         <v>-8</v>
       </c>
       <c r="D254" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E254" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F254" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="255">
       <c r="C255" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D255" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E255" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F255" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="C256" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D256" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E256" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F256" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G256" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="257">
+      <c r="C257" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D257" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E257" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F257" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G257" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -1789,20 +3749,60 @@
         <v>-8</v>
       </c>
       <c r="D259" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E259" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F259" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="260">
       <c r="C260" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D260" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E260" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F260" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="C261" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D261" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E261" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F261" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G261" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="262">
+      <c r="C262" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D262" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E262" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F262" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G262" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -1814,20 +3814,60 @@
         <v>-8</v>
       </c>
       <c r="D264" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E264" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F264" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="265">
       <c r="C265" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D265" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E265" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F265" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="C266" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D266" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E266" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F266" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G266" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="267">
+      <c r="C267" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D267" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E267" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F267" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G267" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -1839,20 +3879,60 @@
         <v>-8</v>
       </c>
       <c r="D269" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E269" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F269" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="270">
       <c r="C270" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D270" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E270" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F270" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="C271" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D271" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E271" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F271" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G271" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="272">
+      <c r="C272" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D272" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E272" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F272" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G272" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -1864,20 +3944,60 @@
         <v>-8</v>
       </c>
       <c r="D274" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E274" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F274" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="275">
       <c r="C275" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D275" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E275" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F275" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="C276" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D276" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E276" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F276" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G276" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="277">
+      <c r="C277" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D277" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E277" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F277" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G277" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -1889,20 +4009,60 @@
         <v>-8</v>
       </c>
       <c r="D279" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E279" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F279" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="280">
       <c r="C280" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D280" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E280" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F280" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="C281" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D281" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E281" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F281" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G281" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="282">
+      <c r="C282" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D282" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E282" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F282" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G282" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -1914,20 +4074,60 @@
         <v>-8</v>
       </c>
       <c r="D284" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E284" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F284" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="285">
       <c r="C285" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D285" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E285" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F285" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="C286" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D286" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E286" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F286" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G286" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="287">
+      <c r="C287" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D287" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E287" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F287" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G287" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -1939,20 +4139,60 @@
         <v>-8</v>
       </c>
       <c r="D289" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E289" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F289" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="290">
       <c r="C290" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D290" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E290" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F290" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="C291" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D291" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E291" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F291" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G291" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="292">
+      <c r="C292" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D292" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E292" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F292" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G292" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -1964,20 +4204,60 @@
         <v>2</v>
       </c>
       <c r="D294" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E294" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F294" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="295">
       <c r="C295" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D295" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E295" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F295" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="C296" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D296" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E296" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F296" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G296" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="297">
+      <c r="C297" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D297" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E297" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F297" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G297" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -1989,20 +4269,60 @@
         <v>-8</v>
       </c>
       <c r="D299" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E299" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F299" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="300">
       <c r="C300" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D300" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E300" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F300" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="C301" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D301" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E301" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F301" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G301" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="302">
+      <c r="C302" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D302" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E302" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F302" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G302" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -2014,20 +4334,60 @@
         <v>-8</v>
       </c>
       <c r="D304" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E304" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F304" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="305">
       <c r="C305" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D305" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E305" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F305" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="C306" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D306" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E306" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F306" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G306" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="307">
+      <c r="C307" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D307" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E307" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F307" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G307" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -2039,20 +4399,60 @@
         <v>-8</v>
       </c>
       <c r="D309" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E309" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F309" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="310">
       <c r="C310" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D310" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E310" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F310" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="C311" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D311" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E311" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F311" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G311" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="312">
+      <c r="C312" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D312" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E312" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F312" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G312" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -2064,20 +4464,60 @@
         <v>-8</v>
       </c>
       <c r="D314" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E314" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F314" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="315">
       <c r="C315" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D315" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E315" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F315" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="C316" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D316" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E316" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F316" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G316" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="317">
+      <c r="C317" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D317" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E317" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F317" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G317" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -2089,20 +4529,60 @@
         <v>-8</v>
       </c>
       <c r="D319" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E319" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F319" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="320">
       <c r="C320" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D320" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E320" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F320" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="C321" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D321" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E321" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F321" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G321" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="322">
+      <c r="C322" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D322" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E322" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F322" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G322" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -2114,20 +4594,60 @@
         <v>-8</v>
       </c>
       <c r="D324" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E324" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F324" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="325">
       <c r="C325" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D325" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E325" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F325" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="C326" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D326" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E326" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F326" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G326" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="327">
+      <c r="C327" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D327" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E327" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F327" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G327" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -2139,20 +4659,60 @@
         <v>2</v>
       </c>
       <c r="D329" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E329" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F329" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="330">
       <c r="C330" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D330" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E330" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F330" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="C331" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D331" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E331" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F331" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G331" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="332">
+      <c r="C332" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D332" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E332" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F332" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G332" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -2164,20 +4724,60 @@
         <v>-8</v>
       </c>
       <c r="D334" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E334" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F334" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="335">
       <c r="C335" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D335" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E335" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F335" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="C336" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D336" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E336" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F336" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G336" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="337">
+      <c r="C337" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D337" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E337" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F337" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G337" s="1" t="str">
         <v>/</v>
       </c>
     </row>
@@ -2189,20 +4789,60 @@
         <v>-8</v>
       </c>
       <c r="D339" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E339" s="1" t="str">
-        <v/>
+        <v>-8</v>
+      </c>
+      <c r="F339" s="1" t="str">
+        <v>-8</v>
       </c>
     </row>
     <row r="340">
       <c r="C340" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="D340" s="1" t="str">
-        <v>/</v>
+        <v>-8/-8</v>
       </c>
       <c r="E340" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+      <c r="F340" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="C341" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D341" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E341" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F341" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G341" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="342">
+      <c r="C342" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="D342" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="E342" s="1" t="str">
+        <v>/-8</v>
+      </c>
+      <c r="F342" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="G342" s="1" t="str">
         <v>/</v>
       </c>
     </row>

--- a/backend/temp2.xlsx
+++ b/backend/temp2.xlsx
@@ -558,7 +558,7 @@
         <v>191039</v>
       </c>
       <c r="C14" s="1" t="str">
-        <v>32</v>
+        <v>-8</v>
       </c>
       <c r="D14" s="1" t="str">
         <v>-8</v>
@@ -567,18 +567,18 @@
         <v>-8</v>
       </c>
       <c r="F14" s="1" t="str">
-        <v>-8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
       <c r="C15" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/65</v>
       </c>
       <c r="D15" s="1" t="str">
         <v>-8/-8</v>
       </c>
       <c r="E15" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/31</v>
       </c>
       <c r="F15" s="1" t="str">
         <v>/</v>
@@ -586,10 +586,10 @@
     </row>
     <row r="16">
       <c r="C16" s="1" t="str">
-        <v/>
+        <v>54</v>
       </c>
       <c r="D16" s="1" t="str">
-        <v/>
+        <v>14</v>
       </c>
       <c r="E16" s="1" t="str">
         <v/>
@@ -603,13 +603,13 @@
     </row>
     <row r="17">
       <c r="C17" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D17" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E17" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F17" s="1" t="str">
         <v>/</v>
@@ -637,7 +637,7 @@
     </row>
     <row r="20">
       <c r="C20" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/46</v>
       </c>
       <c r="D20" s="1" t="str">
         <v>-8/-8</v>
@@ -651,10 +651,10 @@
     </row>
     <row r="21">
       <c r="C21" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D21" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E21" s="1" t="str">
         <v/>
@@ -668,13 +668,13 @@
     </row>
     <row r="22">
       <c r="C22" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D22" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E22" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F22" s="1" t="str">
         <v>/</v>
@@ -702,7 +702,7 @@
     </row>
     <row r="25">
       <c r="C25" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/73</v>
       </c>
       <c r="D25" s="1" t="str">
         <v>-8/-8</v>
@@ -716,10 +716,10 @@
     </row>
     <row r="26">
       <c r="C26" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D26" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E26" s="1" t="str">
         <v/>
@@ -733,13 +733,13 @@
     </row>
     <row r="27">
       <c r="C27" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D27" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E27" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F27" s="1" t="str">
         <v>/</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="30">
       <c r="C30" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/79</v>
       </c>
       <c r="D30" s="1" t="str">
         <v>-8/-8</v>
@@ -781,10 +781,10 @@
     </row>
     <row r="31">
       <c r="C31" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D31" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E31" s="1" t="str">
         <v/>
@@ -798,13 +798,13 @@
     </row>
     <row r="32">
       <c r="C32" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D32" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E32" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F32" s="1" t="str">
         <v>/</v>
@@ -832,7 +832,7 @@
     </row>
     <row r="35">
       <c r="C35" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/1</v>
       </c>
       <c r="D35" s="1" t="str">
         <v>-8/-8</v>
@@ -846,10 +846,10 @@
     </row>
     <row r="36">
       <c r="C36" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D36" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E36" s="1" t="str">
         <v/>
@@ -863,13 +863,13 @@
     </row>
     <row r="37">
       <c r="C37" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D37" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E37" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F37" s="1" t="str">
         <v>/</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="40">
       <c r="C40" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/56</v>
       </c>
       <c r="D40" s="1" t="str">
         <v>-8/-8</v>
@@ -911,10 +911,10 @@
     </row>
     <row r="41">
       <c r="C41" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D41" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E41" s="1" t="str">
         <v/>
@@ -928,13 +928,13 @@
     </row>
     <row r="42">
       <c r="C42" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D42" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E42" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F42" s="1" t="str">
         <v>/</v>
@@ -962,7 +962,7 @@
     </row>
     <row r="45">
       <c r="C45" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/68</v>
       </c>
       <c r="D45" s="1" t="str">
         <v>-8/-8</v>
@@ -976,10 +976,10 @@
     </row>
     <row r="46">
       <c r="C46" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D46" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E46" s="1" t="str">
         <v/>
@@ -993,13 +993,13 @@
     </row>
     <row r="47">
       <c r="C47" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D47" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E47" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F47" s="1" t="str">
         <v>/</v>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="50">
       <c r="C50" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/20</v>
       </c>
       <c r="D50" s="1" t="str">
         <v>-8/-8</v>
@@ -1041,10 +1041,10 @@
     </row>
     <row r="51">
       <c r="C51" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D51" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E51" s="1" t="str">
         <v/>
@@ -1058,13 +1058,13 @@
     </row>
     <row r="52">
       <c r="C52" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D52" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E52" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F52" s="1" t="str">
         <v>/</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="55">
       <c r="C55" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/13</v>
       </c>
       <c r="D55" s="1" t="str">
         <v>-8/-8</v>
@@ -1106,10 +1106,10 @@
     </row>
     <row r="56">
       <c r="C56" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D56" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E56" s="1" t="str">
         <v/>
@@ -1123,13 +1123,13 @@
     </row>
     <row r="57">
       <c r="C57" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D57" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E57" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F57" s="1" t="str">
         <v>/</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="60">
       <c r="C60" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/52</v>
       </c>
       <c r="D60" s="1" t="str">
         <v>-8/-8</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="61">
       <c r="C61" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D61" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E61" s="1" t="str">
         <v/>
@@ -1188,13 +1188,13 @@
     </row>
     <row r="62">
       <c r="C62" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D62" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E62" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F62" s="1" t="str">
         <v>/</v>
@@ -1222,7 +1222,7 @@
     </row>
     <row r="65">
       <c r="C65" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/12</v>
       </c>
       <c r="D65" s="1" t="str">
         <v>-8/-8</v>
@@ -1236,10 +1236,10 @@
     </row>
     <row r="66">
       <c r="C66" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D66" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E66" s="1" t="str">
         <v/>
@@ -1253,13 +1253,13 @@
     </row>
     <row r="67">
       <c r="C67" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D67" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E67" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F67" s="1" t="str">
         <v>/</v>
@@ -1286,11 +1286,8 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="str">
-        <v>elo</v>
-      </c>
       <c r="C70" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/60</v>
       </c>
       <c r="D70" s="1" t="str">
         <v>-8/-8</v>
@@ -1304,10 +1301,10 @@
     </row>
     <row r="71">
       <c r="C71" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D71" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E71" s="1" t="str">
         <v/>
@@ -1321,13 +1318,13 @@
     </row>
     <row r="72">
       <c r="C72" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D72" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E72" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F72" s="1" t="str">
         <v>/</v>
@@ -1355,7 +1352,7 @@
     </row>
     <row r="75">
       <c r="C75" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/1</v>
       </c>
       <c r="D75" s="1" t="str">
         <v>-8/-8</v>
@@ -1369,10 +1366,10 @@
     </row>
     <row r="76">
       <c r="C76" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D76" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E76" s="1" t="str">
         <v/>
@@ -1386,13 +1383,13 @@
     </row>
     <row r="77">
       <c r="C77" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D77" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E77" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F77" s="1" t="str">
         <v>/</v>
@@ -1420,7 +1417,7 @@
     </row>
     <row r="80">
       <c r="C80" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/32</v>
       </c>
       <c r="D80" s="1" t="str">
         <v>-8/-8</v>
@@ -1434,10 +1431,10 @@
     </row>
     <row r="81">
       <c r="C81" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D81" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E81" s="1" t="str">
         <v/>
@@ -1451,13 +1448,13 @@
     </row>
     <row r="82">
       <c r="C82" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D82" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E82" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F82" s="1" t="str">
         <v>/</v>
@@ -1485,7 +1482,7 @@
     </row>
     <row r="85">
       <c r="C85" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/17</v>
       </c>
       <c r="D85" s="1" t="str">
         <v>-8/-8</v>
@@ -1499,10 +1496,10 @@
     </row>
     <row r="86">
       <c r="C86" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D86" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E86" s="1" t="str">
         <v/>
@@ -1516,13 +1513,13 @@
     </row>
     <row r="87">
       <c r="C87" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D87" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E87" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F87" s="1" t="str">
         <v>/</v>
@@ -1550,7 +1547,7 @@
     </row>
     <row r="90">
       <c r="C90" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/42</v>
       </c>
       <c r="D90" s="1" t="str">
         <v>-8/-8</v>
@@ -1564,10 +1561,10 @@
     </row>
     <row r="91">
       <c r="C91" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D91" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E91" s="1" t="str">
         <v/>
@@ -1581,13 +1578,13 @@
     </row>
     <row r="92">
       <c r="C92" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D92" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E92" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F92" s="1" t="str">
         <v>/</v>
@@ -1615,7 +1612,7 @@
     </row>
     <row r="95">
       <c r="C95" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/15</v>
       </c>
       <c r="D95" s="1" t="str">
         <v>-8/-8</v>
@@ -1629,10 +1626,10 @@
     </row>
     <row r="96">
       <c r="C96" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D96" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E96" s="1" t="str">
         <v/>
@@ -1646,13 +1643,13 @@
     </row>
     <row r="97">
       <c r="C97" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D97" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E97" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F97" s="1" t="str">
         <v>/</v>
@@ -1680,7 +1677,7 @@
     </row>
     <row r="100">
       <c r="C100" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/70</v>
       </c>
       <c r="D100" s="1" t="str">
         <v>-8/-8</v>
@@ -1694,10 +1691,10 @@
     </row>
     <row r="101">
       <c r="C101" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D101" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E101" s="1" t="str">
         <v/>
@@ -1711,13 +1708,13 @@
     </row>
     <row r="102">
       <c r="C102" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D102" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E102" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F102" s="1" t="str">
         <v>/</v>
@@ -1745,7 +1742,7 @@
     </row>
     <row r="105">
       <c r="C105" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/32</v>
       </c>
       <c r="D105" s="1" t="str">
         <v>-8/-8</v>
@@ -1759,10 +1756,10 @@
     </row>
     <row r="106">
       <c r="C106" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D106" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E106" s="1" t="str">
         <v/>
@@ -1776,13 +1773,13 @@
     </row>
     <row r="107">
       <c r="C107" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D107" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E107" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F107" s="1" t="str">
         <v>/</v>
@@ -1810,7 +1807,7 @@
     </row>
     <row r="110">
       <c r="C110" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/27</v>
       </c>
       <c r="D110" s="1" t="str">
         <v>-8/-8</v>
@@ -1824,10 +1821,10 @@
     </row>
     <row r="111">
       <c r="C111" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D111" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E111" s="1" t="str">
         <v/>
@@ -1841,13 +1838,13 @@
     </row>
     <row r="112">
       <c r="C112" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D112" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E112" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F112" s="1" t="str">
         <v>/</v>
@@ -1875,7 +1872,7 @@
     </row>
     <row r="115">
       <c r="C115" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/43</v>
       </c>
       <c r="D115" s="1" t="str">
         <v>-8/-8</v>
@@ -1889,10 +1886,10 @@
     </row>
     <row r="116">
       <c r="C116" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D116" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E116" s="1" t="str">
         <v/>
@@ -1906,13 +1903,13 @@
     </row>
     <row r="117">
       <c r="C117" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D117" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E117" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F117" s="1" t="str">
         <v>/</v>
@@ -1940,7 +1937,7 @@
     </row>
     <row r="120">
       <c r="C120" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/61</v>
       </c>
       <c r="D120" s="1" t="str">
         <v>-8/-8</v>
@@ -1954,10 +1951,10 @@
     </row>
     <row r="121">
       <c r="C121" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D121" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E121" s="1" t="str">
         <v/>
@@ -1971,13 +1968,13 @@
     </row>
     <row r="122">
       <c r="C122" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D122" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E122" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F122" s="1" t="str">
         <v>/</v>
@@ -2005,7 +2002,7 @@
     </row>
     <row r="125">
       <c r="C125" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/41</v>
       </c>
       <c r="D125" s="1" t="str">
         <v>-8/-8</v>
@@ -2019,10 +2016,10 @@
     </row>
     <row r="126">
       <c r="C126" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D126" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E126" s="1" t="str">
         <v/>
@@ -2036,13 +2033,13 @@
     </row>
     <row r="127">
       <c r="C127" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D127" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E127" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F127" s="1" t="str">
         <v>/</v>
@@ -2070,7 +2067,7 @@
     </row>
     <row r="130">
       <c r="C130" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/68</v>
       </c>
       <c r="D130" s="1" t="str">
         <v>-8/-8</v>
@@ -2084,10 +2081,10 @@
     </row>
     <row r="131">
       <c r="C131" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D131" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E131" s="1" t="str">
         <v/>
@@ -2101,13 +2098,13 @@
     </row>
     <row r="132">
       <c r="C132" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D132" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E132" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F132" s="1" t="str">
         <v>/</v>
@@ -2135,7 +2132,7 @@
     </row>
     <row r="135">
       <c r="C135" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/29</v>
       </c>
       <c r="D135" s="1" t="str">
         <v>-8/-8</v>
@@ -2149,10 +2146,10 @@
     </row>
     <row r="136">
       <c r="C136" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D136" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E136" s="1" t="str">
         <v/>
@@ -2166,13 +2163,13 @@
     </row>
     <row r="137">
       <c r="C137" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D137" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E137" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F137" s="1" t="str">
         <v>/</v>
@@ -2200,7 +2197,7 @@
     </row>
     <row r="140">
       <c r="C140" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/23</v>
       </c>
       <c r="D140" s="1" t="str">
         <v>-8/-8</v>
@@ -2214,10 +2211,10 @@
     </row>
     <row r="141">
       <c r="C141" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D141" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E141" s="1" t="str">
         <v/>
@@ -2231,13 +2228,13 @@
     </row>
     <row r="142">
       <c r="C142" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D142" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E142" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F142" s="1" t="str">
         <v>/</v>
@@ -2265,7 +2262,7 @@
     </row>
     <row r="145">
       <c r="C145" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/49</v>
       </c>
       <c r="D145" s="1" t="str">
         <v>-8/-8</v>
@@ -2279,10 +2276,10 @@
     </row>
     <row r="146">
       <c r="C146" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D146" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E146" s="1" t="str">
         <v/>
@@ -2296,13 +2293,13 @@
     </row>
     <row r="147">
       <c r="C147" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D147" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E147" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F147" s="1" t="str">
         <v>/</v>
@@ -2330,7 +2327,7 @@
     </row>
     <row r="150">
       <c r="C150" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/44</v>
       </c>
       <c r="D150" s="1" t="str">
         <v>-8/-8</v>
@@ -2344,10 +2341,10 @@
     </row>
     <row r="151">
       <c r="C151" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D151" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E151" s="1" t="str">
         <v/>
@@ -2361,13 +2358,13 @@
     </row>
     <row r="152">
       <c r="C152" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D152" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E152" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F152" s="1" t="str">
         <v>/</v>
@@ -2395,7 +2392,7 @@
     </row>
     <row r="155">
       <c r="C155" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/23</v>
       </c>
       <c r="D155" s="1" t="str">
         <v>-8/-8</v>
@@ -2409,10 +2406,10 @@
     </row>
     <row r="156">
       <c r="C156" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D156" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E156" s="1" t="str">
         <v/>
@@ -2426,13 +2423,13 @@
     </row>
     <row r="157">
       <c r="C157" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D157" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E157" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F157" s="1" t="str">
         <v>/</v>
@@ -2446,7 +2443,7 @@
         <v>201057</v>
       </c>
       <c r="C159" s="1" t="str">
-        <v>42</v>
+        <v>-8</v>
       </c>
       <c r="D159" s="1" t="str">
         <v>-8</v>
@@ -2455,18 +2452,18 @@
         <v>-8</v>
       </c>
       <c r="F159" s="1" t="str">
-        <v>-8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="160">
       <c r="C160" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/10</v>
       </c>
       <c r="D160" s="1" t="str">
         <v>-8/-8</v>
       </c>
       <c r="E160" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/52</v>
       </c>
       <c r="F160" s="1" t="str">
         <v>/</v>
@@ -2474,10 +2471,10 @@
     </row>
     <row r="161">
       <c r="C161" s="1" t="str">
-        <v/>
+        <v>23</v>
       </c>
       <c r="D161" s="1" t="str">
-        <v/>
+        <v>24</v>
       </c>
       <c r="E161" s="1" t="str">
         <v/>
@@ -2491,13 +2488,13 @@
     </row>
     <row r="162">
       <c r="C162" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D162" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E162" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F162" s="1" t="str">
         <v>/</v>
@@ -2525,7 +2522,7 @@
     </row>
     <row r="165">
       <c r="C165" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/37</v>
       </c>
       <c r="D165" s="1" t="str">
         <v>-8/-8</v>
@@ -2539,10 +2536,10 @@
     </row>
     <row r="166">
       <c r="C166" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D166" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E166" s="1" t="str">
         <v/>
@@ -2556,13 +2553,13 @@
     </row>
     <row r="167">
       <c r="C167" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D167" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E167" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F167" s="1" t="str">
         <v>/</v>
@@ -2590,13 +2587,13 @@
     </row>
     <row r="170">
       <c r="C170" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/3</v>
       </c>
       <c r="D170" s="1" t="str">
         <v>-8/-8</v>
       </c>
       <c r="E170" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/31</v>
       </c>
       <c r="F170" s="1" t="str">
         <v>/</v>
@@ -2604,10 +2601,10 @@
     </row>
     <row r="171">
       <c r="C171" s="1" t="str">
-        <v/>
+        <v>21</v>
       </c>
       <c r="D171" s="1" t="str">
-        <v/>
+        <v>45</v>
       </c>
       <c r="E171" s="1" t="str">
         <v/>
@@ -2621,13 +2618,13 @@
     </row>
     <row r="172">
       <c r="C172" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D172" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E172" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F172" s="1" t="str">
         <v>/</v>
@@ -2655,7 +2652,7 @@
     </row>
     <row r="175">
       <c r="C175" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/73</v>
       </c>
       <c r="D175" s="1" t="str">
         <v>-8/-8</v>
@@ -2669,10 +2666,10 @@
     </row>
     <row r="176">
       <c r="C176" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D176" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E176" s="1" t="str">
         <v/>
@@ -2686,13 +2683,13 @@
     </row>
     <row r="177">
       <c r="C177" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D177" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E177" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F177" s="1" t="str">
         <v>/</v>
@@ -2720,7 +2717,7 @@
     </row>
     <row r="180">
       <c r="C180" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/19</v>
       </c>
       <c r="D180" s="1" t="str">
         <v>-8/-8</v>
@@ -2734,10 +2731,10 @@
     </row>
     <row r="181">
       <c r="C181" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D181" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E181" s="1" t="str">
         <v/>
@@ -2751,13 +2748,13 @@
     </row>
     <row r="182">
       <c r="C182" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D182" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E182" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F182" s="1" t="str">
         <v>/</v>
@@ -2785,7 +2782,7 @@
     </row>
     <row r="185">
       <c r="C185" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/43</v>
       </c>
       <c r="D185" s="1" t="str">
         <v>-8/-8</v>
@@ -2799,10 +2796,10 @@
     </row>
     <row r="186">
       <c r="C186" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D186" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E186" s="1" t="str">
         <v/>
@@ -2816,13 +2813,13 @@
     </row>
     <row r="187">
       <c r="C187" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D187" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E187" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F187" s="1" t="str">
         <v>/</v>
@@ -2836,7 +2833,7 @@
         <v>201067</v>
       </c>
       <c r="C189" s="1" t="str">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D189" s="1" t="str">
         <v>-8</v>
@@ -2845,18 +2842,18 @@
         <v>-8</v>
       </c>
       <c r="F189" s="1" t="str">
-        <v>-8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="190">
       <c r="C190" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/77</v>
       </c>
       <c r="D190" s="1" t="str">
         <v>-8/-8</v>
       </c>
       <c r="E190" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/23</v>
       </c>
       <c r="F190" s="1" t="str">
         <v>/</v>
@@ -2864,10 +2861,10 @@
     </row>
     <row r="191">
       <c r="C191" s="1" t="str">
-        <v/>
+        <v>23</v>
       </c>
       <c r="D191" s="1" t="str">
-        <v/>
+        <v>12</v>
       </c>
       <c r="E191" s="1" t="str">
         <v/>
@@ -2881,13 +2878,13 @@
     </row>
     <row r="192">
       <c r="C192" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D192" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E192" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F192" s="1" t="str">
         <v>/</v>
@@ -2915,7 +2912,7 @@
     </row>
     <row r="195">
       <c r="C195" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/19</v>
       </c>
       <c r="D195" s="1" t="str">
         <v>-8/-8</v>
@@ -2929,10 +2926,10 @@
     </row>
     <row r="196">
       <c r="C196" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D196" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E196" s="1" t="str">
         <v/>
@@ -2946,13 +2943,13 @@
     </row>
     <row r="197">
       <c r="C197" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D197" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E197" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F197" s="1" t="str">
         <v>/</v>
@@ -2980,7 +2977,7 @@
     </row>
     <row r="200">
       <c r="C200" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/67</v>
       </c>
       <c r="D200" s="1" t="str">
         <v>-8/-8</v>
@@ -2994,10 +2991,10 @@
     </row>
     <row r="201">
       <c r="C201" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D201" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E201" s="1" t="str">
         <v/>
@@ -3011,13 +3008,13 @@
     </row>
     <row r="202">
       <c r="C202" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D202" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E202" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F202" s="1" t="str">
         <v>/</v>
@@ -3045,7 +3042,7 @@
     </row>
     <row r="205">
       <c r="C205" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/4</v>
       </c>
       <c r="D205" s="1" t="str">
         <v>-8/-8</v>
@@ -3059,10 +3056,10 @@
     </row>
     <row r="206">
       <c r="C206" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D206" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E206" s="1" t="str">
         <v/>
@@ -3076,13 +3073,13 @@
     </row>
     <row r="207">
       <c r="C207" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D207" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E207" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F207" s="1" t="str">
         <v>/</v>
@@ -3110,7 +3107,7 @@
     </row>
     <row r="210">
       <c r="C210" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/18</v>
       </c>
       <c r="D210" s="1" t="str">
         <v>-8/-8</v>
@@ -3124,10 +3121,10 @@
     </row>
     <row r="211">
       <c r="C211" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D211" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E211" s="1" t="str">
         <v/>
@@ -3141,13 +3138,13 @@
     </row>
     <row r="212">
       <c r="C212" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D212" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E212" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F212" s="1" t="str">
         <v>/</v>
@@ -3175,7 +3172,7 @@
     </row>
     <row r="215">
       <c r="C215" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/27</v>
       </c>
       <c r="D215" s="1" t="str">
         <v>-8/-8</v>
@@ -3189,10 +3186,10 @@
     </row>
     <row r="216">
       <c r="C216" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D216" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E216" s="1" t="str">
         <v/>
@@ -3206,13 +3203,13 @@
     </row>
     <row r="217">
       <c r="C217" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D217" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E217" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F217" s="1" t="str">
         <v>/</v>
@@ -3240,7 +3237,7 @@
     </row>
     <row r="220">
       <c r="C220" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/53</v>
       </c>
       <c r="D220" s="1" t="str">
         <v>-8/-8</v>
@@ -3254,10 +3251,10 @@
     </row>
     <row r="221">
       <c r="C221" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D221" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E221" s="1" t="str">
         <v/>
@@ -3271,13 +3268,13 @@
     </row>
     <row r="222">
       <c r="C222" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D222" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E222" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F222" s="1" t="str">
         <v>/</v>
@@ -3305,7 +3302,7 @@
     </row>
     <row r="225">
       <c r="C225" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/6</v>
       </c>
       <c r="D225" s="1" t="str">
         <v>-8/-8</v>
@@ -3319,10 +3316,10 @@
     </row>
     <row r="226">
       <c r="C226" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D226" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E226" s="1" t="str">
         <v/>
@@ -3336,13 +3333,13 @@
     </row>
     <row r="227">
       <c r="C227" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D227" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E227" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F227" s="1" t="str">
         <v>/</v>
@@ -3370,7 +3367,7 @@
     </row>
     <row r="230">
       <c r="C230" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/4</v>
       </c>
       <c r="D230" s="1" t="str">
         <v>-8/-8</v>
@@ -3384,10 +3381,10 @@
     </row>
     <row r="231">
       <c r="C231" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D231" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E231" s="1" t="str">
         <v/>
@@ -3401,13 +3398,13 @@
     </row>
     <row r="232">
       <c r="C232" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D232" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E232" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F232" s="1" t="str">
         <v>/</v>
@@ -3435,7 +3432,7 @@
     </row>
     <row r="235">
       <c r="C235" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/29</v>
       </c>
       <c r="D235" s="1" t="str">
         <v>-8/-8</v>
@@ -3449,10 +3446,10 @@
     </row>
     <row r="236">
       <c r="C236" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D236" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E236" s="1" t="str">
         <v/>
@@ -3466,13 +3463,13 @@
     </row>
     <row r="237">
       <c r="C237" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D237" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E237" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F237" s="1" t="str">
         <v>/</v>
@@ -3500,7 +3497,7 @@
     </row>
     <row r="240">
       <c r="C240" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/43</v>
       </c>
       <c r="D240" s="1" t="str">
         <v>-8/-8</v>
@@ -3514,10 +3511,10 @@
     </row>
     <row r="241">
       <c r="C241" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D241" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E241" s="1" t="str">
         <v/>
@@ -3531,13 +3528,13 @@
     </row>
     <row r="242">
       <c r="C242" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D242" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E242" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F242" s="1" t="str">
         <v>/</v>
@@ -3565,7 +3562,7 @@
     </row>
     <row r="245">
       <c r="C245" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/34</v>
       </c>
       <c r="D245" s="1" t="str">
         <v>-8/-8</v>
@@ -3579,10 +3576,10 @@
     </row>
     <row r="246">
       <c r="C246" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D246" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E246" s="1" t="str">
         <v/>
@@ -3596,13 +3593,13 @@
     </row>
     <row r="247">
       <c r="C247" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D247" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E247" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F247" s="1" t="str">
         <v>/</v>
@@ -3630,7 +3627,7 @@
     </row>
     <row r="250">
       <c r="C250" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/16</v>
       </c>
       <c r="D250" s="1" t="str">
         <v>-8/-8</v>
@@ -3644,10 +3641,10 @@
     </row>
     <row r="251">
       <c r="C251" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D251" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E251" s="1" t="str">
         <v/>
@@ -3661,13 +3658,13 @@
     </row>
     <row r="252">
       <c r="C252" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D252" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E252" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F252" s="1" t="str">
         <v>/</v>
@@ -3695,7 +3692,7 @@
     </row>
     <row r="255">
       <c r="C255" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/56</v>
       </c>
       <c r="D255" s="1" t="str">
         <v>-8/-8</v>
@@ -3709,10 +3706,10 @@
     </row>
     <row r="256">
       <c r="C256" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D256" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E256" s="1" t="str">
         <v/>
@@ -3726,13 +3723,13 @@
     </row>
     <row r="257">
       <c r="C257" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D257" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E257" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F257" s="1" t="str">
         <v>/</v>
@@ -3760,7 +3757,7 @@
     </row>
     <row r="260">
       <c r="C260" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/35</v>
       </c>
       <c r="D260" s="1" t="str">
         <v>-8/-8</v>
@@ -3774,10 +3771,10 @@
     </row>
     <row r="261">
       <c r="C261" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D261" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E261" s="1" t="str">
         <v/>
@@ -3791,13 +3788,13 @@
     </row>
     <row r="262">
       <c r="C262" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D262" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E262" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F262" s="1" t="str">
         <v>/</v>
@@ -3825,7 +3822,7 @@
     </row>
     <row r="265">
       <c r="C265" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/42</v>
       </c>
       <c r="D265" s="1" t="str">
         <v>-8/-8</v>
@@ -3839,10 +3836,10 @@
     </row>
     <row r="266">
       <c r="C266" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D266" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E266" s="1" t="str">
         <v/>
@@ -3856,13 +3853,13 @@
     </row>
     <row r="267">
       <c r="C267" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D267" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E267" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F267" s="1" t="str">
         <v>/</v>
@@ -3890,7 +3887,7 @@
     </row>
     <row r="270">
       <c r="C270" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/65</v>
       </c>
       <c r="D270" s="1" t="str">
         <v>-8/-8</v>
@@ -3904,10 +3901,10 @@
     </row>
     <row r="271">
       <c r="C271" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D271" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E271" s="1" t="str">
         <v/>
@@ -3921,13 +3918,13 @@
     </row>
     <row r="272">
       <c r="C272" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D272" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E272" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F272" s="1" t="str">
         <v>/</v>
@@ -3955,7 +3952,7 @@
     </row>
     <row r="275">
       <c r="C275" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/65</v>
       </c>
       <c r="D275" s="1" t="str">
         <v>-8/-8</v>
@@ -3969,10 +3966,10 @@
     </row>
     <row r="276">
       <c r="C276" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D276" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E276" s="1" t="str">
         <v/>
@@ -3986,13 +3983,13 @@
     </row>
     <row r="277">
       <c r="C277" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D277" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E277" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F277" s="1" t="str">
         <v>/</v>
@@ -4020,7 +4017,7 @@
     </row>
     <row r="280">
       <c r="C280" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/33</v>
       </c>
       <c r="D280" s="1" t="str">
         <v>-8/-8</v>
@@ -4034,10 +4031,10 @@
     </row>
     <row r="281">
       <c r="C281" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D281" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E281" s="1" t="str">
         <v/>
@@ -4051,13 +4048,13 @@
     </row>
     <row r="282">
       <c r="C282" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D282" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E282" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F282" s="1" t="str">
         <v>/</v>
@@ -4085,7 +4082,7 @@
     </row>
     <row r="285">
       <c r="C285" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/14</v>
       </c>
       <c r="D285" s="1" t="str">
         <v>-8/-8</v>
@@ -4099,10 +4096,10 @@
     </row>
     <row r="286">
       <c r="C286" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D286" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E286" s="1" t="str">
         <v/>
@@ -4116,13 +4113,13 @@
     </row>
     <row r="287">
       <c r="C287" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D287" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E287" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F287" s="1" t="str">
         <v>/</v>
@@ -4150,7 +4147,7 @@
     </row>
     <row r="290">
       <c r="C290" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/77</v>
       </c>
       <c r="D290" s="1" t="str">
         <v>-8/-8</v>
@@ -4164,10 +4161,10 @@
     </row>
     <row r="291">
       <c r="C291" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D291" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E291" s="1" t="str">
         <v/>
@@ -4181,13 +4178,13 @@
     </row>
     <row r="292">
       <c r="C292" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D292" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E292" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F292" s="1" t="str">
         <v>/</v>
@@ -4201,7 +4198,7 @@
         <v>201106</v>
       </c>
       <c r="C294" s="1" t="str">
-        <v>2</v>
+        <v>-8</v>
       </c>
       <c r="D294" s="1" t="str">
         <v>-8</v>
@@ -4215,13 +4212,13 @@
     </row>
     <row r="295">
       <c r="C295" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/63</v>
       </c>
       <c r="D295" s="1" t="str">
         <v>-8/-8</v>
       </c>
       <c r="E295" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/35</v>
       </c>
       <c r="F295" s="1" t="str">
         <v>/</v>
@@ -4229,10 +4226,10 @@
     </row>
     <row r="296">
       <c r="C296" s="1" t="str">
-        <v/>
+        <v>12</v>
       </c>
       <c r="D296" s="1" t="str">
-        <v/>
+        <v>12</v>
       </c>
       <c r="E296" s="1" t="str">
         <v/>
@@ -4246,13 +4243,13 @@
     </row>
     <row r="297">
       <c r="C297" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D297" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E297" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F297" s="1" t="str">
         <v>/</v>
@@ -4280,7 +4277,7 @@
     </row>
     <row r="300">
       <c r="C300" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/25</v>
       </c>
       <c r="D300" s="1" t="str">
         <v>-8/-8</v>
@@ -4294,10 +4291,10 @@
     </row>
     <row r="301">
       <c r="C301" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D301" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E301" s="1" t="str">
         <v/>
@@ -4311,13 +4308,13 @@
     </row>
     <row r="302">
       <c r="C302" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D302" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E302" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F302" s="1" t="str">
         <v>/</v>
@@ -4345,13 +4342,13 @@
     </row>
     <row r="305">
       <c r="C305" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/36</v>
       </c>
       <c r="D305" s="1" t="str">
         <v>-8/-8</v>
       </c>
       <c r="E305" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/2</v>
       </c>
       <c r="F305" s="1" t="str">
         <v>/</v>
@@ -4359,10 +4356,10 @@
     </row>
     <row r="306">
       <c r="C306" s="1" t="str">
-        <v/>
+        <v>52</v>
       </c>
       <c r="D306" s="1" t="str">
-        <v/>
+        <v>41</v>
       </c>
       <c r="E306" s="1" t="str">
         <v/>
@@ -4376,13 +4373,13 @@
     </row>
     <row r="307">
       <c r="C307" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D307" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E307" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F307" s="1" t="str">
         <v>/</v>
@@ -4410,7 +4407,7 @@
     </row>
     <row r="310">
       <c r="C310" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/80</v>
       </c>
       <c r="D310" s="1" t="str">
         <v>-8/-8</v>
@@ -4424,10 +4421,10 @@
     </row>
     <row r="311">
       <c r="C311" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D311" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E311" s="1" t="str">
         <v/>
@@ -4441,13 +4438,13 @@
     </row>
     <row r="312">
       <c r="C312" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D312" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E312" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F312" s="1" t="str">
         <v>/</v>
@@ -4475,7 +4472,7 @@
     </row>
     <row r="315">
       <c r="C315" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/14</v>
       </c>
       <c r="D315" s="1" t="str">
         <v>-8/-8</v>
@@ -4489,10 +4486,10 @@
     </row>
     <row r="316">
       <c r="C316" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D316" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E316" s="1" t="str">
         <v/>
@@ -4506,13 +4503,13 @@
     </row>
     <row r="317">
       <c r="C317" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D317" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E317" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F317" s="1" t="str">
         <v>/</v>
@@ -4540,7 +4537,7 @@
     </row>
     <row r="320">
       <c r="C320" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/41</v>
       </c>
       <c r="D320" s="1" t="str">
         <v>-8/-8</v>
@@ -4554,10 +4551,10 @@
     </row>
     <row r="321">
       <c r="C321" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D321" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E321" s="1" t="str">
         <v/>
@@ -4571,13 +4568,13 @@
     </row>
     <row r="322">
       <c r="C322" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D322" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E322" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F322" s="1" t="str">
         <v>/</v>
@@ -4605,7 +4602,7 @@
     </row>
     <row r="325">
       <c r="C325" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/6</v>
       </c>
       <c r="D325" s="1" t="str">
         <v>-8/-8</v>
@@ -4619,10 +4616,10 @@
     </row>
     <row r="326">
       <c r="C326" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D326" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E326" s="1" t="str">
         <v/>
@@ -4636,13 +4633,13 @@
     </row>
     <row r="327">
       <c r="C327" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D327" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E327" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F327" s="1" t="str">
         <v>/</v>
@@ -4656,7 +4653,7 @@
         <v>201122</v>
       </c>
       <c r="C329" s="1" t="str">
-        <v>2</v>
+        <v>-8</v>
       </c>
       <c r="D329" s="1" t="str">
         <v>-8</v>
@@ -4665,18 +4662,18 @@
         <v>-8</v>
       </c>
       <c r="F329" s="1" t="str">
-        <v>-8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="330">
       <c r="C330" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/73</v>
       </c>
       <c r="D330" s="1" t="str">
         <v>-8/-8</v>
       </c>
       <c r="E330" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/52</v>
       </c>
       <c r="F330" s="1" t="str">
         <v>/</v>
@@ -4684,10 +4681,10 @@
     </row>
     <row r="331">
       <c r="C331" s="1" t="str">
-        <v/>
+        <v>12</v>
       </c>
       <c r="D331" s="1" t="str">
-        <v/>
+        <v>12</v>
       </c>
       <c r="E331" s="1" t="str">
         <v/>
@@ -4701,13 +4698,13 @@
     </row>
     <row r="332">
       <c r="C332" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D332" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E332" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F332" s="1" t="str">
         <v>/</v>
@@ -4735,7 +4732,7 @@
     </row>
     <row r="335">
       <c r="C335" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/62</v>
       </c>
       <c r="D335" s="1" t="str">
         <v>-8/-8</v>
@@ -4749,10 +4746,10 @@
     </row>
     <row r="336">
       <c r="C336" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D336" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E336" s="1" t="str">
         <v/>
@@ -4766,13 +4763,13 @@
     </row>
     <row r="337">
       <c r="C337" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D337" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E337" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F337" s="1" t="str">
         <v>/</v>
@@ -4800,7 +4797,7 @@
     </row>
     <row r="340">
       <c r="C340" s="1" t="str">
-        <v>-8/-8</v>
+        <v>-8/52</v>
       </c>
       <c r="D340" s="1" t="str">
         <v>-8/-8</v>
@@ -4814,10 +4811,10 @@
     </row>
     <row r="341">
       <c r="C341" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D341" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="E341" s="1" t="str">
         <v/>
@@ -4831,13 +4828,13 @@
     </row>
     <row r="342">
       <c r="C342" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="D342" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="E342" s="1" t="str">
-        <v>/-8</v>
+        <v>/</v>
       </c>
       <c r="F342" s="1" t="str">
         <v>/</v>

--- a/backend/temp2.xlsx
+++ b/backend/temp2.xlsx
@@ -558,27 +558,27 @@
         <v>191039</v>
       </c>
       <c r="C14" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D14" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E14" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F14" s="1" t="str">
-        <v>14</v>
+        <v/>
       </c>
     </row>
     <row r="15">
       <c r="C15" s="1" t="str">
-        <v>-8/65</v>
+        <v>/-8</v>
       </c>
       <c r="D15" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E15" s="1" t="str">
-        <v>-8/31</v>
+        <v>/</v>
       </c>
       <c r="F15" s="1" t="str">
         <v>/</v>
@@ -586,10 +586,10 @@
     </row>
     <row r="16">
       <c r="C16" s="1" t="str">
-        <v>54</v>
+        <v/>
       </c>
       <c r="D16" s="1" t="str">
-        <v>14</v>
+        <v/>
       </c>
       <c r="E16" s="1" t="str">
         <v/>
@@ -623,27 +623,27 @@
         <v>201002</v>
       </c>
       <c r="C19" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D19" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E19" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F19" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
     </row>
     <row r="20">
       <c r="C20" s="1" t="str">
-        <v>-8/46</v>
+        <v>/-8</v>
       </c>
       <c r="D20" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E20" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="F20" s="1" t="str">
         <v>/</v>
@@ -651,10 +651,10 @@
     </row>
     <row r="21">
       <c r="C21" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D21" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E21" s="1" t="str">
         <v/>
@@ -688,27 +688,27 @@
         <v>201004</v>
       </c>
       <c r="C24" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D24" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E24" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F24" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
     </row>
     <row r="25">
       <c r="C25" s="1" t="str">
-        <v>-8/73</v>
+        <v>/-8</v>
       </c>
       <c r="D25" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E25" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="F25" s="1" t="str">
         <v>/</v>
@@ -716,10 +716,10 @@
     </row>
     <row r="26">
       <c r="C26" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D26" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E26" s="1" t="str">
         <v/>
@@ -753,27 +753,27 @@
         <v>201006</v>
       </c>
       <c r="C29" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D29" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E29" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F29" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
     </row>
     <row r="30">
       <c r="C30" s="1" t="str">
-        <v>-8/79</v>
+        <v>/-8</v>
       </c>
       <c r="D30" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E30" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="F30" s="1" t="str">
         <v>/</v>
@@ -781,10 +781,10 @@
     </row>
     <row r="31">
       <c r="C31" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D31" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E31" s="1" t="str">
         <v/>
@@ -818,27 +818,27 @@
         <v>201009</v>
       </c>
       <c r="C34" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D34" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E34" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F34" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
     </row>
     <row r="35">
       <c r="C35" s="1" t="str">
-        <v>-8/1</v>
+        <v>/-8</v>
       </c>
       <c r="D35" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E35" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="F35" s="1" t="str">
         <v>/</v>
@@ -846,10 +846,10 @@
     </row>
     <row r="36">
       <c r="C36" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D36" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E36" s="1" t="str">
         <v/>
@@ -883,27 +883,27 @@
         <v>201019</v>
       </c>
       <c r="C39" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D39" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E39" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F39" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
     </row>
     <row r="40">
       <c r="C40" s="1" t="str">
-        <v>-8/56</v>
+        <v>/-8</v>
       </c>
       <c r="D40" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E40" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="F40" s="1" t="str">
         <v>/</v>
@@ -911,10 +911,10 @@
     </row>
     <row r="41">
       <c r="C41" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D41" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E41" s="1" t="str">
         <v/>
@@ -948,27 +948,27 @@
         <v>201022</v>
       </c>
       <c r="C44" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D44" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E44" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F44" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
     </row>
     <row r="45">
       <c r="C45" s="1" t="str">
-        <v>-8/68</v>
+        <v>/-8</v>
       </c>
       <c r="D45" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E45" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="F45" s="1" t="str">
         <v>/</v>
@@ -976,10 +976,10 @@
     </row>
     <row r="46">
       <c r="C46" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D46" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E46" s="1" t="str">
         <v/>
@@ -1013,27 +1013,27 @@
         <v>201024</v>
       </c>
       <c r="C49" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D49" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E49" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F49" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
     </row>
     <row r="50">
       <c r="C50" s="1" t="str">
-        <v>-8/20</v>
+        <v>/-8</v>
       </c>
       <c r="D50" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E50" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="F50" s="1" t="str">
         <v>/</v>
@@ -1041,10 +1041,10 @@
     </row>
     <row r="51">
       <c r="C51" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D51" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E51" s="1" t="str">
         <v/>
@@ -1078,27 +1078,27 @@
         <v>201026</v>
       </c>
       <c r="C54" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D54" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E54" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F54" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
     </row>
     <row r="55">
       <c r="C55" s="1" t="str">
-        <v>-8/13</v>
+        <v>/-8</v>
       </c>
       <c r="D55" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E55" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="F55" s="1" t="str">
         <v>/</v>
@@ -1106,10 +1106,10 @@
     </row>
     <row r="56">
       <c r="C56" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D56" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E56" s="1" t="str">
         <v/>
@@ -1143,27 +1143,27 @@
         <v>201029</v>
       </c>
       <c r="C59" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D59" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E59" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F59" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
     </row>
     <row r="60">
       <c r="C60" s="1" t="str">
-        <v>-8/52</v>
+        <v>/-8</v>
       </c>
       <c r="D60" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E60" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="F60" s="1" t="str">
         <v>/</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="61">
       <c r="C61" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D61" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E61" s="1" t="str">
         <v/>
@@ -1208,27 +1208,27 @@
         <v>201030</v>
       </c>
       <c r="C64" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D64" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E64" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F64" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
     </row>
     <row r="65">
       <c r="C65" s="1" t="str">
-        <v>-8/12</v>
+        <v>/-8</v>
       </c>
       <c r="D65" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E65" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="F65" s="1" t="str">
         <v>/</v>
@@ -1236,10 +1236,10 @@
     </row>
     <row r="66">
       <c r="C66" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D66" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E66" s="1" t="str">
         <v/>
@@ -1273,27 +1273,27 @@
         <v>201031</v>
       </c>
       <c r="C69" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D69" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E69" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F69" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
     </row>
     <row r="70">
       <c r="C70" s="1" t="str">
-        <v>-8/60</v>
+        <v>/-8</v>
       </c>
       <c r="D70" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E70" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="F70" s="1" t="str">
         <v>/</v>
@@ -1301,10 +1301,10 @@
     </row>
     <row r="71">
       <c r="C71" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D71" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E71" s="1" t="str">
         <v/>
@@ -1338,27 +1338,27 @@
         <v>201032</v>
       </c>
       <c r="C74" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D74" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E74" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F74" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
     </row>
     <row r="75">
       <c r="C75" s="1" t="str">
-        <v>-8/1</v>
+        <v>/-8</v>
       </c>
       <c r="D75" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E75" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="F75" s="1" t="str">
         <v>/</v>
@@ -1366,10 +1366,10 @@
     </row>
     <row r="76">
       <c r="C76" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D76" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E76" s="1" t="str">
         <v/>
@@ -1403,27 +1403,27 @@
         <v>201035</v>
       </c>
       <c r="C79" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D79" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E79" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F79" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
     </row>
     <row r="80">
       <c r="C80" s="1" t="str">
-        <v>-8/32</v>
+        <v>/-8</v>
       </c>
       <c r="D80" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E80" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="F80" s="1" t="str">
         <v>/</v>
@@ -1431,10 +1431,10 @@
     </row>
     <row r="81">
       <c r="C81" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D81" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E81" s="1" t="str">
         <v/>
@@ -1468,27 +1468,27 @@
         <v>201036</v>
       </c>
       <c r="C84" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D84" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E84" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F84" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
     </row>
     <row r="85">
       <c r="C85" s="1" t="str">
-        <v>-8/17</v>
+        <v>/-8</v>
       </c>
       <c r="D85" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E85" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="F85" s="1" t="str">
         <v>/</v>
@@ -1496,10 +1496,10 @@
     </row>
     <row r="86">
       <c r="C86" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D86" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E86" s="1" t="str">
         <v/>
@@ -1533,27 +1533,27 @@
         <v>201037</v>
       </c>
       <c r="C89" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D89" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E89" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F89" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
     </row>
     <row r="90">
       <c r="C90" s="1" t="str">
-        <v>-8/42</v>
+        <v>/-8</v>
       </c>
       <c r="D90" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E90" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="F90" s="1" t="str">
         <v>/</v>
@@ -1561,10 +1561,10 @@
     </row>
     <row r="91">
       <c r="C91" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D91" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E91" s="1" t="str">
         <v/>
@@ -1598,27 +1598,27 @@
         <v>201039</v>
       </c>
       <c r="C94" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D94" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E94" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F94" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
     </row>
     <row r="95">
       <c r="C95" s="1" t="str">
-        <v>-8/15</v>
+        <v>/-8</v>
       </c>
       <c r="D95" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E95" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="F95" s="1" t="str">
         <v>/</v>
@@ -1626,10 +1626,10 @@
     </row>
     <row r="96">
       <c r="C96" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D96" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E96" s="1" t="str">
         <v/>
@@ -1663,27 +1663,27 @@
         <v>201041</v>
       </c>
       <c r="C99" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D99" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E99" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F99" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
     </row>
     <row r="100">
       <c r="C100" s="1" t="str">
-        <v>-8/70</v>
+        <v>/-8</v>
       </c>
       <c r="D100" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E100" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="F100" s="1" t="str">
         <v>/</v>
@@ -1691,10 +1691,10 @@
     </row>
     <row r="101">
       <c r="C101" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D101" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E101" s="1" t="str">
         <v/>
@@ -1728,27 +1728,27 @@
         <v>201042</v>
       </c>
       <c r="C104" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D104" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E104" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F104" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
     </row>
     <row r="105">
       <c r="C105" s="1" t="str">
-        <v>-8/32</v>
+        <v>/-8</v>
       </c>
       <c r="D105" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E105" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="F105" s="1" t="str">
         <v>/</v>
@@ -1756,10 +1756,10 @@
     </row>
     <row r="106">
       <c r="C106" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D106" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E106" s="1" t="str">
         <v/>
@@ -1793,27 +1793,27 @@
         <v>201043</v>
       </c>
       <c r="C109" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D109" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E109" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F109" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
     </row>
     <row r="110">
       <c r="C110" s="1" t="str">
-        <v>-8/27</v>
+        <v>/-8</v>
       </c>
       <c r="D110" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E110" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="F110" s="1" t="str">
         <v>/</v>
@@ -1821,10 +1821,10 @@
     </row>
     <row r="111">
       <c r="C111" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D111" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E111" s="1" t="str">
         <v/>
@@ -1858,27 +1858,27 @@
         <v>201044</v>
       </c>
       <c r="C114" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D114" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E114" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F114" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
     </row>
     <row r="115">
       <c r="C115" s="1" t="str">
-        <v>-8/43</v>
+        <v>/-8</v>
       </c>
       <c r="D115" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E115" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="F115" s="1" t="str">
         <v>/</v>
@@ -1886,10 +1886,10 @@
     </row>
     <row r="116">
       <c r="C116" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D116" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E116" s="1" t="str">
         <v/>
@@ -1923,27 +1923,27 @@
         <v>201045</v>
       </c>
       <c r="C119" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D119" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E119" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F119" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
     </row>
     <row r="120">
       <c r="C120" s="1" t="str">
-        <v>-8/61</v>
+        <v>/-8</v>
       </c>
       <c r="D120" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E120" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="F120" s="1" t="str">
         <v>/</v>
@@ -1951,10 +1951,10 @@
     </row>
     <row r="121">
       <c r="C121" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D121" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E121" s="1" t="str">
         <v/>
@@ -1988,27 +1988,27 @@
         <v>201047</v>
       </c>
       <c r="C124" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D124" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E124" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F124" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
     </row>
     <row r="125">
       <c r="C125" s="1" t="str">
-        <v>-8/41</v>
+        <v>/-8</v>
       </c>
       <c r="D125" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E125" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="F125" s="1" t="str">
         <v>/</v>
@@ -2016,10 +2016,10 @@
     </row>
     <row r="126">
       <c r="C126" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D126" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E126" s="1" t="str">
         <v/>
@@ -2053,27 +2053,27 @@
         <v>201048</v>
       </c>
       <c r="C129" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D129" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E129" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F129" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
     </row>
     <row r="130">
       <c r="C130" s="1" t="str">
-        <v>-8/68</v>
+        <v>/-8</v>
       </c>
       <c r="D130" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E130" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="F130" s="1" t="str">
         <v>/</v>
@@ -2081,10 +2081,10 @@
     </row>
     <row r="131">
       <c r="C131" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D131" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E131" s="1" t="str">
         <v/>
@@ -2118,27 +2118,27 @@
         <v>201050</v>
       </c>
       <c r="C134" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D134" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E134" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F134" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
     </row>
     <row r="135">
       <c r="C135" s="1" t="str">
-        <v>-8/29</v>
+        <v>/-8</v>
       </c>
       <c r="D135" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E135" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="F135" s="1" t="str">
         <v>/</v>
@@ -2146,10 +2146,10 @@
     </row>
     <row r="136">
       <c r="C136" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D136" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E136" s="1" t="str">
         <v/>
@@ -2183,27 +2183,27 @@
         <v>201052</v>
       </c>
       <c r="C139" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D139" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E139" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F139" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
     </row>
     <row r="140">
       <c r="C140" s="1" t="str">
-        <v>-8/23</v>
+        <v>/-8</v>
       </c>
       <c r="D140" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E140" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="F140" s="1" t="str">
         <v>/</v>
@@ -2211,10 +2211,10 @@
     </row>
     <row r="141">
       <c r="C141" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D141" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E141" s="1" t="str">
         <v/>
@@ -2248,27 +2248,27 @@
         <v>201053</v>
       </c>
       <c r="C144" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D144" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E144" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F144" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
     </row>
     <row r="145">
       <c r="C145" s="1" t="str">
-        <v>-8/49</v>
+        <v>/-8</v>
       </c>
       <c r="D145" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E145" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="F145" s="1" t="str">
         <v>/</v>
@@ -2276,10 +2276,10 @@
     </row>
     <row r="146">
       <c r="C146" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D146" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E146" s="1" t="str">
         <v/>
@@ -2313,27 +2313,27 @@
         <v>201054</v>
       </c>
       <c r="C149" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D149" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E149" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F149" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
     </row>
     <row r="150">
       <c r="C150" s="1" t="str">
-        <v>-8/44</v>
+        <v>/-8</v>
       </c>
       <c r="D150" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E150" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="F150" s="1" t="str">
         <v>/</v>
@@ -2341,10 +2341,10 @@
     </row>
     <row r="151">
       <c r="C151" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D151" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E151" s="1" t="str">
         <v/>
@@ -2378,27 +2378,27 @@
         <v>201056</v>
       </c>
       <c r="C154" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D154" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E154" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F154" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
     </row>
     <row r="155">
       <c r="C155" s="1" t="str">
-        <v>-8/23</v>
+        <v>/-8</v>
       </c>
       <c r="D155" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E155" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="F155" s="1" t="str">
         <v>/</v>
@@ -2406,10 +2406,10 @@
     </row>
     <row r="156">
       <c r="C156" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D156" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E156" s="1" t="str">
         <v/>
@@ -2443,27 +2443,27 @@
         <v>201057</v>
       </c>
       <c r="C159" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D159" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E159" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F159" s="1" t="str">
-        <v>34</v>
+        <v/>
       </c>
     </row>
     <row r="160">
       <c r="C160" s="1" t="str">
-        <v>-8/10</v>
+        <v>/-8</v>
       </c>
       <c r="D160" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E160" s="1" t="str">
-        <v>-8/52</v>
+        <v>/</v>
       </c>
       <c r="F160" s="1" t="str">
         <v>/</v>
@@ -2471,10 +2471,10 @@
     </row>
     <row r="161">
       <c r="C161" s="1" t="str">
-        <v>23</v>
+        <v/>
       </c>
       <c r="D161" s="1" t="str">
-        <v>24</v>
+        <v/>
       </c>
       <c r="E161" s="1" t="str">
         <v/>
@@ -2508,27 +2508,27 @@
         <v>201058</v>
       </c>
       <c r="C164" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D164" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E164" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F164" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
     </row>
     <row r="165">
       <c r="C165" s="1" t="str">
-        <v>-8/37</v>
+        <v>/-8</v>
       </c>
       <c r="D165" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E165" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="F165" s="1" t="str">
         <v>/</v>
@@ -2536,10 +2536,10 @@
     </row>
     <row r="166">
       <c r="C166" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D166" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E166" s="1" t="str">
         <v/>
@@ -2573,27 +2573,27 @@
         <v>201062</v>
       </c>
       <c r="C169" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D169" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E169" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F169" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
     </row>
     <row r="170">
       <c r="C170" s="1" t="str">
-        <v>-8/3</v>
+        <v>/-8</v>
       </c>
       <c r="D170" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E170" s="1" t="str">
-        <v>-8/31</v>
+        <v>/</v>
       </c>
       <c r="F170" s="1" t="str">
         <v>/</v>
@@ -2601,10 +2601,10 @@
     </row>
     <row r="171">
       <c r="C171" s="1" t="str">
-        <v>21</v>
+        <v/>
       </c>
       <c r="D171" s="1" t="str">
-        <v>45</v>
+        <v/>
       </c>
       <c r="E171" s="1" t="str">
         <v/>
@@ -2638,27 +2638,27 @@
         <v>201064</v>
       </c>
       <c r="C174" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D174" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E174" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F174" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
     </row>
     <row r="175">
       <c r="C175" s="1" t="str">
-        <v>-8/73</v>
+        <v>/-8</v>
       </c>
       <c r="D175" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E175" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="F175" s="1" t="str">
         <v>/</v>
@@ -2666,10 +2666,10 @@
     </row>
     <row r="176">
       <c r="C176" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D176" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E176" s="1" t="str">
         <v/>
@@ -2703,27 +2703,27 @@
         <v>201065</v>
       </c>
       <c r="C179" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D179" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E179" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F179" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
     </row>
     <row r="180">
       <c r="C180" s="1" t="str">
-        <v>-8/19</v>
+        <v>/-8</v>
       </c>
       <c r="D180" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E180" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="F180" s="1" t="str">
         <v>/</v>
@@ -2731,10 +2731,10 @@
     </row>
     <row r="181">
       <c r="C181" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D181" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E181" s="1" t="str">
         <v/>
@@ -2768,27 +2768,27 @@
         <v>201066</v>
       </c>
       <c r="C184" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D184" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E184" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F184" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
     </row>
     <row r="185">
       <c r="C185" s="1" t="str">
-        <v>-8/43</v>
+        <v>/-8</v>
       </c>
       <c r="D185" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E185" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="F185" s="1" t="str">
         <v>/</v>
@@ -2796,10 +2796,10 @@
     </row>
     <row r="186">
       <c r="C186" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D186" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E186" s="1" t="str">
         <v/>
@@ -2833,27 +2833,27 @@
         <v>201067</v>
       </c>
       <c r="C189" s="1" t="str">
-        <v>10</v>
+        <v/>
       </c>
       <c r="D189" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E189" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F189" s="1" t="str">
-        <v>10</v>
+        <v/>
       </c>
     </row>
     <row r="190">
       <c r="C190" s="1" t="str">
-        <v>-8/77</v>
+        <v>/-8</v>
       </c>
       <c r="D190" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E190" s="1" t="str">
-        <v>-8/23</v>
+        <v>/</v>
       </c>
       <c r="F190" s="1" t="str">
         <v>/</v>
@@ -2861,10 +2861,10 @@
     </row>
     <row r="191">
       <c r="C191" s="1" t="str">
-        <v>23</v>
+        <v/>
       </c>
       <c r="D191" s="1" t="str">
-        <v>12</v>
+        <v/>
       </c>
       <c r="E191" s="1" t="str">
         <v/>
@@ -2898,27 +2898,27 @@
         <v>201070</v>
       </c>
       <c r="C194" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D194" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E194" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F194" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
     </row>
     <row r="195">
       <c r="C195" s="1" t="str">
-        <v>-8/19</v>
+        <v>/-8</v>
       </c>
       <c r="D195" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E195" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="F195" s="1" t="str">
         <v>/</v>
@@ -2926,10 +2926,10 @@
     </row>
     <row r="196">
       <c r="C196" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D196" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E196" s="1" t="str">
         <v/>
@@ -2963,27 +2963,27 @@
         <v>201072</v>
       </c>
       <c r="C199" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D199" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E199" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F199" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
     </row>
     <row r="200">
       <c r="C200" s="1" t="str">
-        <v>-8/67</v>
+        <v>/-8</v>
       </c>
       <c r="D200" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E200" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="F200" s="1" t="str">
         <v>/</v>
@@ -2991,10 +2991,10 @@
     </row>
     <row r="201">
       <c r="C201" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D201" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E201" s="1" t="str">
         <v/>
@@ -3028,27 +3028,27 @@
         <v>201075</v>
       </c>
       <c r="C204" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D204" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E204" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F204" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
     </row>
     <row r="205">
       <c r="C205" s="1" t="str">
-        <v>-8/4</v>
+        <v>/-8</v>
       </c>
       <c r="D205" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E205" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="F205" s="1" t="str">
         <v>/</v>
@@ -3056,10 +3056,10 @@
     </row>
     <row r="206">
       <c r="C206" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D206" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E206" s="1" t="str">
         <v/>
@@ -3093,27 +3093,27 @@
         <v>201076</v>
       </c>
       <c r="C209" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D209" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E209" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F209" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
     </row>
     <row r="210">
       <c r="C210" s="1" t="str">
-        <v>-8/18</v>
+        <v>/-8</v>
       </c>
       <c r="D210" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E210" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="F210" s="1" t="str">
         <v>/</v>
@@ -3121,10 +3121,10 @@
     </row>
     <row r="211">
       <c r="C211" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D211" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E211" s="1" t="str">
         <v/>
@@ -3158,27 +3158,27 @@
         <v>201078</v>
       </c>
       <c r="C214" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D214" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E214" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F214" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
     </row>
     <row r="215">
       <c r="C215" s="1" t="str">
-        <v>-8/27</v>
+        <v>/-8</v>
       </c>
       <c r="D215" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E215" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="F215" s="1" t="str">
         <v>/</v>
@@ -3186,10 +3186,10 @@
     </row>
     <row r="216">
       <c r="C216" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D216" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E216" s="1" t="str">
         <v/>
@@ -3223,27 +3223,27 @@
         <v>201083</v>
       </c>
       <c r="C219" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D219" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E219" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F219" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
     </row>
     <row r="220">
       <c r="C220" s="1" t="str">
-        <v>-8/53</v>
+        <v>/-8</v>
       </c>
       <c r="D220" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E220" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="F220" s="1" t="str">
         <v>/</v>
@@ -3251,10 +3251,10 @@
     </row>
     <row r="221">
       <c r="C221" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D221" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E221" s="1" t="str">
         <v/>
@@ -3288,27 +3288,27 @@
         <v>201084</v>
       </c>
       <c r="C224" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D224" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E224" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F224" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
     </row>
     <row r="225">
       <c r="C225" s="1" t="str">
-        <v>-8/6</v>
+        <v>/-8</v>
       </c>
       <c r="D225" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E225" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="F225" s="1" t="str">
         <v>/</v>
@@ -3316,10 +3316,10 @@
     </row>
     <row r="226">
       <c r="C226" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D226" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E226" s="1" t="str">
         <v/>
@@ -3353,27 +3353,27 @@
         <v>201085</v>
       </c>
       <c r="C229" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D229" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E229" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F229" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
     </row>
     <row r="230">
       <c r="C230" s="1" t="str">
-        <v>-8/4</v>
+        <v>/-8</v>
       </c>
       <c r="D230" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E230" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="F230" s="1" t="str">
         <v>/</v>
@@ -3381,10 +3381,10 @@
     </row>
     <row r="231">
       <c r="C231" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D231" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E231" s="1" t="str">
         <v/>
@@ -3418,27 +3418,27 @@
         <v>201087</v>
       </c>
       <c r="C234" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D234" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E234" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F234" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
     </row>
     <row r="235">
       <c r="C235" s="1" t="str">
-        <v>-8/29</v>
+        <v>/-8</v>
       </c>
       <c r="D235" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E235" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="F235" s="1" t="str">
         <v>/</v>
@@ -3446,10 +3446,10 @@
     </row>
     <row r="236">
       <c r="C236" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D236" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E236" s="1" t="str">
         <v/>
@@ -3483,27 +3483,27 @@
         <v>201089</v>
       </c>
       <c r="C239" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D239" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E239" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F239" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
     </row>
     <row r="240">
       <c r="C240" s="1" t="str">
-        <v>-8/43</v>
+        <v>/-8</v>
       </c>
       <c r="D240" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E240" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="F240" s="1" t="str">
         <v>/</v>
@@ -3511,10 +3511,10 @@
     </row>
     <row r="241">
       <c r="C241" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D241" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E241" s="1" t="str">
         <v/>
@@ -3548,27 +3548,27 @@
         <v>201091</v>
       </c>
       <c r="C244" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D244" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E244" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F244" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
     </row>
     <row r="245">
       <c r="C245" s="1" t="str">
-        <v>-8/34</v>
+        <v>/-8</v>
       </c>
       <c r="D245" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E245" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="F245" s="1" t="str">
         <v>/</v>
@@ -3576,10 +3576,10 @@
     </row>
     <row r="246">
       <c r="C246" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D246" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E246" s="1" t="str">
         <v/>
@@ -3613,27 +3613,27 @@
         <v>201092</v>
       </c>
       <c r="C249" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D249" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E249" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F249" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
     </row>
     <row r="250">
       <c r="C250" s="1" t="str">
-        <v>-8/16</v>
+        <v>/-8</v>
       </c>
       <c r="D250" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E250" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="F250" s="1" t="str">
         <v>/</v>
@@ -3641,10 +3641,10 @@
     </row>
     <row r="251">
       <c r="C251" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D251" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E251" s="1" t="str">
         <v/>
@@ -3678,27 +3678,27 @@
         <v>201093</v>
       </c>
       <c r="C254" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D254" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E254" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F254" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
     </row>
     <row r="255">
       <c r="C255" s="1" t="str">
-        <v>-8/56</v>
+        <v>/-8</v>
       </c>
       <c r="D255" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E255" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="F255" s="1" t="str">
         <v>/</v>
@@ -3706,10 +3706,10 @@
     </row>
     <row r="256">
       <c r="C256" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D256" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E256" s="1" t="str">
         <v/>
@@ -3743,27 +3743,27 @@
         <v>201095</v>
       </c>
       <c r="C259" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D259" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E259" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F259" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
     </row>
     <row r="260">
       <c r="C260" s="1" t="str">
-        <v>-8/35</v>
+        <v>/-8</v>
       </c>
       <c r="D260" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E260" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="F260" s="1" t="str">
         <v>/</v>
@@ -3771,10 +3771,10 @@
     </row>
     <row r="261">
       <c r="C261" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D261" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E261" s="1" t="str">
         <v/>
@@ -3808,27 +3808,27 @@
         <v>201096</v>
       </c>
       <c r="C264" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D264" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E264" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F264" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
     </row>
     <row r="265">
       <c r="C265" s="1" t="str">
-        <v>-8/42</v>
+        <v>/-8</v>
       </c>
       <c r="D265" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E265" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="F265" s="1" t="str">
         <v>/</v>
@@ -3836,10 +3836,10 @@
     </row>
     <row r="266">
       <c r="C266" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D266" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E266" s="1" t="str">
         <v/>
@@ -3873,27 +3873,27 @@
         <v>201098</v>
       </c>
       <c r="C269" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D269" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E269" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F269" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
     </row>
     <row r="270">
       <c r="C270" s="1" t="str">
-        <v>-8/65</v>
+        <v>/-8</v>
       </c>
       <c r="D270" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E270" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="F270" s="1" t="str">
         <v>/</v>
@@ -3901,10 +3901,10 @@
     </row>
     <row r="271">
       <c r="C271" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D271" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E271" s="1" t="str">
         <v/>
@@ -3938,27 +3938,27 @@
         <v>201099</v>
       </c>
       <c r="C274" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D274" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E274" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F274" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
     </row>
     <row r="275">
       <c r="C275" s="1" t="str">
-        <v>-8/65</v>
+        <v>/-8</v>
       </c>
       <c r="D275" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E275" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="F275" s="1" t="str">
         <v>/</v>
@@ -3966,10 +3966,10 @@
     </row>
     <row r="276">
       <c r="C276" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D276" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E276" s="1" t="str">
         <v/>
@@ -4003,27 +4003,27 @@
         <v>201102</v>
       </c>
       <c r="C279" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D279" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E279" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F279" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
     </row>
     <row r="280">
       <c r="C280" s="1" t="str">
-        <v>-8/33</v>
+        <v>/-8</v>
       </c>
       <c r="D280" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E280" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="F280" s="1" t="str">
         <v>/</v>
@@ -4031,10 +4031,10 @@
     </row>
     <row r="281">
       <c r="C281" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D281" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E281" s="1" t="str">
         <v/>
@@ -4068,27 +4068,27 @@
         <v>201104</v>
       </c>
       <c r="C284" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D284" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E284" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F284" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
     </row>
     <row r="285">
       <c r="C285" s="1" t="str">
-        <v>-8/14</v>
+        <v>/-8</v>
       </c>
       <c r="D285" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E285" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="F285" s="1" t="str">
         <v>/</v>
@@ -4096,10 +4096,10 @@
     </row>
     <row r="286">
       <c r="C286" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D286" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E286" s="1" t="str">
         <v/>
@@ -4133,27 +4133,27 @@
         <v>201105</v>
       </c>
       <c r="C289" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D289" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E289" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F289" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
     </row>
     <row r="290">
       <c r="C290" s="1" t="str">
-        <v>-8/77</v>
+        <v>/-8</v>
       </c>
       <c r="D290" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E290" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="F290" s="1" t="str">
         <v>/</v>
@@ -4161,10 +4161,10 @@
     </row>
     <row r="291">
       <c r="C291" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D291" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E291" s="1" t="str">
         <v/>
@@ -4198,27 +4198,27 @@
         <v>201106</v>
       </c>
       <c r="C294" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D294" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E294" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F294" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
     </row>
     <row r="295">
       <c r="C295" s="1" t="str">
-        <v>-8/63</v>
+        <v>/-8</v>
       </c>
       <c r="D295" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E295" s="1" t="str">
-        <v>-8/35</v>
+        <v>/</v>
       </c>
       <c r="F295" s="1" t="str">
         <v>/</v>
@@ -4226,10 +4226,10 @@
     </row>
     <row r="296">
       <c r="C296" s="1" t="str">
-        <v>12</v>
+        <v/>
       </c>
       <c r="D296" s="1" t="str">
-        <v>12</v>
+        <v/>
       </c>
       <c r="E296" s="1" t="str">
         <v/>
@@ -4263,27 +4263,27 @@
         <v>201107</v>
       </c>
       <c r="C299" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D299" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E299" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F299" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
     </row>
     <row r="300">
       <c r="C300" s="1" t="str">
-        <v>-8/25</v>
+        <v>/-8</v>
       </c>
       <c r="D300" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E300" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="F300" s="1" t="str">
         <v>/</v>
@@ -4291,10 +4291,10 @@
     </row>
     <row r="301">
       <c r="C301" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D301" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E301" s="1" t="str">
         <v/>
@@ -4328,27 +4328,27 @@
         <v>201108</v>
       </c>
       <c r="C304" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D304" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E304" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F304" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
     </row>
     <row r="305">
       <c r="C305" s="1" t="str">
-        <v>-8/36</v>
+        <v>/-8</v>
       </c>
       <c r="D305" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E305" s="1" t="str">
-        <v>-8/2</v>
+        <v>/</v>
       </c>
       <c r="F305" s="1" t="str">
         <v>/</v>
@@ -4356,10 +4356,10 @@
     </row>
     <row r="306">
       <c r="C306" s="1" t="str">
-        <v>52</v>
+        <v/>
       </c>
       <c r="D306" s="1" t="str">
-        <v>41</v>
+        <v/>
       </c>
       <c r="E306" s="1" t="str">
         <v/>
@@ -4393,27 +4393,27 @@
         <v>201112</v>
       </c>
       <c r="C309" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D309" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E309" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F309" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
     </row>
     <row r="310">
       <c r="C310" s="1" t="str">
-        <v>-8/80</v>
+        <v>/-8</v>
       </c>
       <c r="D310" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E310" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="F310" s="1" t="str">
         <v>/</v>
@@ -4421,10 +4421,10 @@
     </row>
     <row r="311">
       <c r="C311" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D311" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E311" s="1" t="str">
         <v/>
@@ -4458,27 +4458,27 @@
         <v>201113</v>
       </c>
       <c r="C314" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D314" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E314" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F314" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
     </row>
     <row r="315">
       <c r="C315" s="1" t="str">
-        <v>-8/14</v>
+        <v>/-8</v>
       </c>
       <c r="D315" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E315" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="F315" s="1" t="str">
         <v>/</v>
@@ -4486,10 +4486,10 @@
     </row>
     <row r="316">
       <c r="C316" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D316" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E316" s="1" t="str">
         <v/>
@@ -4523,27 +4523,27 @@
         <v>201115</v>
       </c>
       <c r="C319" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D319" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E319" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F319" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
     </row>
     <row r="320">
       <c r="C320" s="1" t="str">
-        <v>-8/41</v>
+        <v>/-8</v>
       </c>
       <c r="D320" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E320" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="F320" s="1" t="str">
         <v>/</v>
@@ -4551,10 +4551,10 @@
     </row>
     <row r="321">
       <c r="C321" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D321" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E321" s="1" t="str">
         <v/>
@@ -4588,27 +4588,27 @@
         <v>201116</v>
       </c>
       <c r="C324" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D324" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E324" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F324" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
     </row>
     <row r="325">
       <c r="C325" s="1" t="str">
-        <v>-8/6</v>
+        <v>/-8</v>
       </c>
       <c r="D325" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E325" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="F325" s="1" t="str">
         <v>/</v>
@@ -4616,10 +4616,10 @@
     </row>
     <row r="326">
       <c r="C326" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D326" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E326" s="1" t="str">
         <v/>
@@ -4653,27 +4653,27 @@
         <v>201122</v>
       </c>
       <c r="C329" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D329" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E329" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F329" s="1" t="str">
-        <v>24</v>
+        <v/>
       </c>
     </row>
     <row r="330">
       <c r="C330" s="1" t="str">
-        <v>-8/73</v>
+        <v>/-8</v>
       </c>
       <c r="D330" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E330" s="1" t="str">
-        <v>-8/52</v>
+        <v>/</v>
       </c>
       <c r="F330" s="1" t="str">
         <v>/</v>
@@ -4681,10 +4681,10 @@
     </row>
     <row r="331">
       <c r="C331" s="1" t="str">
-        <v>12</v>
+        <v/>
       </c>
       <c r="D331" s="1" t="str">
-        <v>12</v>
+        <v/>
       </c>
       <c r="E331" s="1" t="str">
         <v/>
@@ -4718,27 +4718,27 @@
         <v>211252</v>
       </c>
       <c r="C334" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D334" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E334" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F334" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
     </row>
     <row r="335">
       <c r="C335" s="1" t="str">
-        <v>-8/62</v>
+        <v>/-8</v>
       </c>
       <c r="D335" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E335" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="F335" s="1" t="str">
         <v>/</v>
@@ -4746,10 +4746,10 @@
     </row>
     <row r="336">
       <c r="C336" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D336" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E336" s="1" t="str">
         <v/>
@@ -4783,27 +4783,27 @@
         <v>211253</v>
       </c>
       <c r="C339" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D339" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E339" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="F339" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
     </row>
     <row r="340">
       <c r="C340" s="1" t="str">
-        <v>-8/52</v>
+        <v>/-8</v>
       </c>
       <c r="D340" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="E340" s="1" t="str">
-        <v>-8/-8</v>
+        <v>/</v>
       </c>
       <c r="F340" s="1" t="str">
         <v>/</v>
@@ -4811,10 +4811,10 @@
     </row>
     <row r="341">
       <c r="C341" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="D341" s="1" t="str">
-        <v>-8</v>
+        <v/>
       </c>
       <c r="E341" s="1" t="str">
         <v/>

--- a/backend/temp2.xlsx
+++ b/backend/temp2.xlsx
@@ -555,17 +555,33 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="str">
-        <v>141414</v>
+        <v>212001</v>
+      </c>
+      <c r="F14" s="1" t="str">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="F15" s="1" t="str">
+        <v>-8/-8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="str">
-        <v>202020</v>
+        <v>212002</v>
+      </c>
+      <c r="F19" s="1" t="str">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="F20" s="1" t="str">
+        <v>-8/-8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="str">
-        <v>222212</v>
+        <v>212003</v>
       </c>
       <c r="F24" s="1" t="str">
         <v>-8</v>
@@ -573,12 +589,12 @@
     </row>
     <row r="25">
       <c r="F25" s="1" t="str">
-        <v>5/12</v>
+        <v>-8/-8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="str">
-        <v>222222</v>
+        <v>212004</v>
       </c>
       <c r="F29" s="1" t="str">
         <v>-8</v>
@@ -586,12 +602,722 @@
     </row>
     <row r="30">
       <c r="F30" s="1" t="str">
-        <v>5/10</v>
+        <v>-8/-8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="str">
-        <v>888888</v>
+        <v>212005</v>
+      </c>
+      <c r="F34" s="1" t="str">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="F35" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="str">
+        <v>212006</v>
+      </c>
+      <c r="F39" s="1" t="str">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="F40" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="str">
+        <v>212007</v>
+      </c>
+      <c r="F44" s="1" t="str">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="F45" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="str">
+        <v>212008</v>
+      </c>
+      <c r="F49" s="1" t="str">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="F50" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="str">
+        <v>212009</v>
+      </c>
+      <c r="F54" s="1" t="str">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="F55" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="str">
+        <v>212010</v>
+      </c>
+      <c r="F59" s="1" t="str">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="F60" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="str">
+        <v>212011</v>
+      </c>
+      <c r="F64" s="1" t="str">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="F65" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="str">
+        <v>212012</v>
+      </c>
+      <c r="F69" s="1" t="str">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="F70" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="str">
+        <v>212013</v>
+      </c>
+      <c r="F74" s="1" t="str">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="F75" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="str">
+        <v>212014</v>
+      </c>
+      <c r="F79" s="1" t="str">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="F80" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="str">
+        <v>212015</v>
+      </c>
+      <c r="F84" s="1" t="str">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="F85" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="str">
+        <v>212016</v>
+      </c>
+      <c r="F89" s="1" t="str">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="F90" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="str">
+        <v>212017</v>
+      </c>
+      <c r="F94" s="1" t="str">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="F95" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="str">
+        <v>212018</v>
+      </c>
+      <c r="F99" s="1" t="str">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="F100" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="str">
+        <v>212019</v>
+      </c>
+      <c r="F104" s="1" t="str">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="F105" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="str">
+        <v>212020</v>
+      </c>
+      <c r="F109" s="1" t="str">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="F110" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="str">
+        <v>212021</v>
+      </c>
+      <c r="F114" s="1" t="str">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="F115" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="str">
+        <v>212022</v>
+      </c>
+      <c r="F119" s="1" t="str">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="F120" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="str">
+        <v>212023</v>
+      </c>
+      <c r="F124" s="1" t="str">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="F125" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="str">
+        <v>212024</v>
+      </c>
+      <c r="F129" s="1" t="str">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="F130" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="str">
+        <v>212025</v>
+      </c>
+      <c r="F134" s="1" t="str">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="F135" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="str">
+        <v>212026</v>
+      </c>
+      <c r="F139" s="1" t="str">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="F140" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="str">
+        <v>212027</v>
+      </c>
+      <c r="F144" s="1" t="str">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="F145" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="str">
+        <v>212028</v>
+      </c>
+      <c r="F149" s="1" t="str">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="F150" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="str">
+        <v>212029</v>
+      </c>
+      <c r="F154" s="1" t="str">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="F155" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="str">
+        <v>212030</v>
+      </c>
+      <c r="F159" s="1" t="str">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="F160" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="str">
+        <v>212031</v>
+      </c>
+      <c r="F164" s="1" t="str">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="F165" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="str">
+        <v>212032</v>
+      </c>
+      <c r="F169" s="1" t="str">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="F170" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="str">
+        <v>212033</v>
+      </c>
+      <c r="F174" s="1" t="str">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="F175" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="str">
+        <v>212034</v>
+      </c>
+      <c r="F179" s="1" t="str">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="F180" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="str">
+        <v>212035</v>
+      </c>
+      <c r="F184" s="1" t="str">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="F185" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="str">
+        <v>212036</v>
+      </c>
+      <c r="F189" s="1" t="str">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="F190" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="str">
+        <v>212037</v>
+      </c>
+      <c r="F194" s="1" t="str">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="F195" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="str">
+        <v>212038</v>
+      </c>
+      <c r="F199" s="1" t="str">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="F200" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="str">
+        <v>212039</v>
+      </c>
+      <c r="F204" s="1" t="str">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="F205" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="str">
+        <v>212040</v>
+      </c>
+      <c r="F209" s="1" t="str">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="F210" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="str">
+        <v>212041</v>
+      </c>
+      <c r="F214" s="1" t="str">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="F215" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="str">
+        <v>212042</v>
+      </c>
+      <c r="F219" s="1" t="str">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="F220" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="str">
+        <v>212043</v>
+      </c>
+      <c r="F224" s="1" t="str">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="F225" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="str">
+        <v>212044</v>
+      </c>
+      <c r="F229" s="1" t="str">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="F230" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="str">
+        <v>212045</v>
+      </c>
+      <c r="F234" s="1" t="str">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="F235" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="str">
+        <v>212046</v>
+      </c>
+      <c r="F239" s="1" t="str">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="F240" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="str">
+        <v>212047</v>
+      </c>
+      <c r="F244" s="1" t="str">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="F245" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="str">
+        <v>212048</v>
+      </c>
+      <c r="F249" s="1" t="str">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="F250" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="str">
+        <v>212049</v>
+      </c>
+      <c r="F254" s="1" t="str">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="F255" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="str">
+        <v>212050</v>
+      </c>
+      <c r="F259" s="1" t="str">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="F260" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="str">
+        <v>212051</v>
+      </c>
+      <c r="F264" s="1" t="str">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="F265" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="str">
+        <v>212052</v>
+      </c>
+      <c r="F269" s="1" t="str">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="F270" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="str">
+        <v>212053</v>
+      </c>
+      <c r="F274" s="1" t="str">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="F275" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="str">
+        <v>212054</v>
+      </c>
+      <c r="F279" s="1" t="str">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="F280" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="str">
+        <v>212055</v>
+      </c>
+      <c r="F284" s="1" t="str">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="F285" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="str">
+        <v>212056</v>
+      </c>
+      <c r="F289" s="1" t="str">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="F290" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="str">
+        <v>212057</v>
+      </c>
+      <c r="F294" s="1" t="str">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="F295" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="str">
+        <v>212058</v>
+      </c>
+      <c r="F299" s="1" t="str">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="F300" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="str">
+        <v>212059</v>
+      </c>
+      <c r="F304" s="1" t="str">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="F305" s="1" t="str">
+        <v>-8/-8</v>
       </c>
     </row>
   </sheetData>

--- a/backend/temp2.xlsx
+++ b/backend/temp2.xlsx
@@ -558,7 +558,7 @@
         <v>212001</v>
       </c>
       <c r="F14" s="1" t="str">
-        <v>-8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -571,7 +571,7 @@
         <v>212002</v>
       </c>
       <c r="F19" s="1" t="str">
-        <v>-8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>212003</v>
       </c>
       <c r="F24" s="1" t="str">
-        <v>-8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
@@ -597,7 +597,7 @@
         <v>212004</v>
       </c>
       <c r="F29" s="1" t="str">
-        <v>-8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30">

--- a/backend/temp2.xlsx
+++ b/backend/temp2.xlsx
@@ -557,6 +557,9 @@
       <c r="A14" s="1" t="str">
         <v>212001</v>
       </c>
+      <c r="C14" s="1" t="str">
+        <v>10</v>
+      </c>
       <c r="F14" s="1" t="str">
         <v>10</v>
       </c>
@@ -570,6 +573,9 @@
       <c r="A19" s="1" t="str">
         <v>212002</v>
       </c>
+      <c r="C19" s="1" t="str">
+        <v>2</v>
+      </c>
       <c r="F19" s="1" t="str">
         <v>20</v>
       </c>
@@ -583,6 +589,9 @@
       <c r="A24" s="1" t="str">
         <v>212003</v>
       </c>
+      <c r="C24" s="1" t="str">
+        <v>3</v>
+      </c>
       <c r="F24" s="1" t="str">
         <v>11</v>
       </c>
@@ -596,6 +605,9 @@
       <c r="A29" s="1" t="str">
         <v>212004</v>
       </c>
+      <c r="C29" s="1" t="str">
+        <v>10</v>
+      </c>
       <c r="F29" s="1" t="str">
         <v>21</v>
       </c>
@@ -609,6 +621,9 @@
       <c r="A34" s="1" t="str">
         <v>212005</v>
       </c>
+      <c r="C34" s="1" t="str">
+        <v>5</v>
+      </c>
       <c r="F34" s="1" t="str">
         <v>-8</v>
       </c>
@@ -622,6 +637,9 @@
       <c r="A39" s="1" t="str">
         <v>212006</v>
       </c>
+      <c r="C39" s="1" t="str">
+        <v>-8</v>
+      </c>
       <c r="F39" s="1" t="str">
         <v>-8</v>
       </c>
@@ -635,6 +653,9 @@
       <c r="A44" s="1" t="str">
         <v>212007</v>
       </c>
+      <c r="C44" s="1" t="str">
+        <v>-8</v>
+      </c>
       <c r="F44" s="1" t="str">
         <v>-8</v>
       </c>
@@ -648,6 +669,9 @@
       <c r="A49" s="1" t="str">
         <v>212008</v>
       </c>
+      <c r="C49" s="1" t="str">
+        <v>-8</v>
+      </c>
       <c r="F49" s="1" t="str">
         <v>-8</v>
       </c>
@@ -661,6 +685,9 @@
       <c r="A54" s="1" t="str">
         <v>212009</v>
       </c>
+      <c r="C54" s="1" t="str">
+        <v>-8</v>
+      </c>
       <c r="F54" s="1" t="str">
         <v>-8</v>
       </c>
@@ -674,6 +701,9 @@
       <c r="A59" s="1" t="str">
         <v>212010</v>
       </c>
+      <c r="C59" s="1" t="str">
+        <v>-8</v>
+      </c>
       <c r="F59" s="1" t="str">
         <v>-8</v>
       </c>
@@ -687,6 +717,9 @@
       <c r="A64" s="1" t="str">
         <v>212011</v>
       </c>
+      <c r="C64" s="1" t="str">
+        <v>-8</v>
+      </c>
       <c r="F64" s="1" t="str">
         <v>-8</v>
       </c>
@@ -700,6 +733,9 @@
       <c r="A69" s="1" t="str">
         <v>212012</v>
       </c>
+      <c r="C69" s="1" t="str">
+        <v>-8</v>
+      </c>
       <c r="F69" s="1" t="str">
         <v>-8</v>
       </c>
@@ -713,19 +749,40 @@
       <c r="A74" s="1" t="str">
         <v>212013</v>
       </c>
+      <c r="C74" s="1" t="str">
+        <v>16</v>
+      </c>
+      <c r="D74" s="1" t="str">
+        <v>15</v>
+      </c>
+      <c r="E74" s="1" t="str">
+        <v>18</v>
+      </c>
       <c r="F74" s="1" t="str">
-        <v>-8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75">
+      <c r="C75" s="1" t="str">
+        <v>20/-8</v>
+      </c>
+      <c r="D75" s="1" t="str">
+        <v>30/4</v>
+      </c>
+      <c r="E75" s="1" t="str">
+        <v>35/5</v>
+      </c>
       <c r="F75" s="1" t="str">
-        <v>-8/-8</v>
+        <v>40/6</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="str">
         <v>212014</v>
       </c>
+      <c r="C79" s="1" t="str">
+        <v>-8</v>
+      </c>
       <c r="F79" s="1" t="str">
         <v>-8</v>
       </c>
@@ -739,6 +796,9 @@
       <c r="A84" s="1" t="str">
         <v>212015</v>
       </c>
+      <c r="C84" s="1" t="str">
+        <v>-8</v>
+      </c>
       <c r="F84" s="1" t="str">
         <v>-8</v>
       </c>
@@ -752,6 +812,9 @@
       <c r="A89" s="1" t="str">
         <v>212016</v>
       </c>
+      <c r="C89" s="1" t="str">
+        <v>-8</v>
+      </c>
       <c r="F89" s="1" t="str">
         <v>-8</v>
       </c>
@@ -765,6 +828,9 @@
       <c r="A94" s="1" t="str">
         <v>212017</v>
       </c>
+      <c r="C94" s="1" t="str">
+        <v>-8</v>
+      </c>
       <c r="F94" s="1" t="str">
         <v>-8</v>
       </c>
@@ -778,6 +844,9 @@
       <c r="A99" s="1" t="str">
         <v>212018</v>
       </c>
+      <c r="C99" s="1" t="str">
+        <v>-8</v>
+      </c>
       <c r="F99" s="1" t="str">
         <v>-8</v>
       </c>
@@ -791,6 +860,9 @@
       <c r="A104" s="1" t="str">
         <v>212019</v>
       </c>
+      <c r="C104" s="1" t="str">
+        <v>-8</v>
+      </c>
       <c r="F104" s="1" t="str">
         <v>-8</v>
       </c>
@@ -804,6 +876,9 @@
       <c r="A109" s="1" t="str">
         <v>212020</v>
       </c>
+      <c r="C109" s="1" t="str">
+        <v>-8</v>
+      </c>
       <c r="F109" s="1" t="str">
         <v>-8</v>
       </c>
@@ -817,6 +892,9 @@
       <c r="A114" s="1" t="str">
         <v>212021</v>
       </c>
+      <c r="C114" s="1" t="str">
+        <v>-8</v>
+      </c>
       <c r="F114" s="1" t="str">
         <v>-8</v>
       </c>
@@ -830,6 +908,9 @@
       <c r="A119" s="1" t="str">
         <v>212022</v>
       </c>
+      <c r="C119" s="1" t="str">
+        <v>-8</v>
+      </c>
       <c r="F119" s="1" t="str">
         <v>-8</v>
       </c>
@@ -843,6 +924,9 @@
       <c r="A124" s="1" t="str">
         <v>212023</v>
       </c>
+      <c r="C124" s="1" t="str">
+        <v>-8</v>
+      </c>
       <c r="F124" s="1" t="str">
         <v>-8</v>
       </c>
@@ -856,6 +940,9 @@
       <c r="A129" s="1" t="str">
         <v>212024</v>
       </c>
+      <c r="C129" s="1" t="str">
+        <v>-8</v>
+      </c>
       <c r="F129" s="1" t="str">
         <v>-8</v>
       </c>
@@ -869,6 +956,9 @@
       <c r="A134" s="1" t="str">
         <v>212025</v>
       </c>
+      <c r="C134" s="1" t="str">
+        <v>-8</v>
+      </c>
       <c r="F134" s="1" t="str">
         <v>-8</v>
       </c>
@@ -882,6 +972,9 @@
       <c r="A139" s="1" t="str">
         <v>212026</v>
       </c>
+      <c r="C139" s="1" t="str">
+        <v>-8</v>
+      </c>
       <c r="F139" s="1" t="str">
         <v>-8</v>
       </c>
@@ -895,6 +988,9 @@
       <c r="A144" s="1" t="str">
         <v>212027</v>
       </c>
+      <c r="C144" s="1" t="str">
+        <v>-8</v>
+      </c>
       <c r="F144" s="1" t="str">
         <v>-8</v>
       </c>
@@ -908,6 +1004,9 @@
       <c r="A149" s="1" t="str">
         <v>212028</v>
       </c>
+      <c r="C149" s="1" t="str">
+        <v>-8</v>
+      </c>
       <c r="F149" s="1" t="str">
         <v>-8</v>
       </c>
@@ -921,6 +1020,9 @@
       <c r="A154" s="1" t="str">
         <v>212029</v>
       </c>
+      <c r="C154" s="1" t="str">
+        <v>-8</v>
+      </c>
       <c r="F154" s="1" t="str">
         <v>-8</v>
       </c>
@@ -934,6 +1036,9 @@
       <c r="A159" s="1" t="str">
         <v>212030</v>
       </c>
+      <c r="C159" s="1" t="str">
+        <v>-8</v>
+      </c>
       <c r="F159" s="1" t="str">
         <v>-8</v>
       </c>
@@ -947,6 +1052,9 @@
       <c r="A164" s="1" t="str">
         <v>212031</v>
       </c>
+      <c r="C164" s="1" t="str">
+        <v>-8</v>
+      </c>
       <c r="F164" s="1" t="str">
         <v>-8</v>
       </c>
@@ -960,6 +1068,9 @@
       <c r="A169" s="1" t="str">
         <v>212032</v>
       </c>
+      <c r="C169" s="1" t="str">
+        <v>-8</v>
+      </c>
       <c r="F169" s="1" t="str">
         <v>-8</v>
       </c>
@@ -973,6 +1084,9 @@
       <c r="A174" s="1" t="str">
         <v>212033</v>
       </c>
+      <c r="C174" s="1" t="str">
+        <v>-8</v>
+      </c>
       <c r="F174" s="1" t="str">
         <v>-8</v>
       </c>
@@ -986,6 +1100,9 @@
       <c r="A179" s="1" t="str">
         <v>212034</v>
       </c>
+      <c r="C179" s="1" t="str">
+        <v>-8</v>
+      </c>
       <c r="F179" s="1" t="str">
         <v>-8</v>
       </c>
@@ -999,6 +1116,9 @@
       <c r="A184" s="1" t="str">
         <v>212035</v>
       </c>
+      <c r="C184" s="1" t="str">
+        <v>-8</v>
+      </c>
       <c r="F184" s="1" t="str">
         <v>-8</v>
       </c>
@@ -1012,6 +1132,9 @@
       <c r="A189" s="1" t="str">
         <v>212036</v>
       </c>
+      <c r="C189" s="1" t="str">
+        <v>-8</v>
+      </c>
       <c r="F189" s="1" t="str">
         <v>-8</v>
       </c>
@@ -1025,6 +1148,9 @@
       <c r="A194" s="1" t="str">
         <v>212037</v>
       </c>
+      <c r="C194" s="1" t="str">
+        <v>-8</v>
+      </c>
       <c r="F194" s="1" t="str">
         <v>-8</v>
       </c>
@@ -1038,6 +1164,9 @@
       <c r="A199" s="1" t="str">
         <v>212038</v>
       </c>
+      <c r="C199" s="1" t="str">
+        <v>-8</v>
+      </c>
       <c r="F199" s="1" t="str">
         <v>-8</v>
       </c>
@@ -1051,6 +1180,9 @@
       <c r="A204" s="1" t="str">
         <v>212039</v>
       </c>
+      <c r="C204" s="1" t="str">
+        <v>-8</v>
+      </c>
       <c r="F204" s="1" t="str">
         <v>-8</v>
       </c>
@@ -1064,6 +1196,9 @@
       <c r="A209" s="1" t="str">
         <v>212040</v>
       </c>
+      <c r="C209" s="1" t="str">
+        <v>-8</v>
+      </c>
       <c r="F209" s="1" t="str">
         <v>-8</v>
       </c>
@@ -1077,6 +1212,9 @@
       <c r="A214" s="1" t="str">
         <v>212041</v>
       </c>
+      <c r="C214" s="1" t="str">
+        <v>-8</v>
+      </c>
       <c r="F214" s="1" t="str">
         <v>-8</v>
       </c>
@@ -1090,6 +1228,9 @@
       <c r="A219" s="1" t="str">
         <v>212042</v>
       </c>
+      <c r="C219" s="1" t="str">
+        <v>-8</v>
+      </c>
       <c r="F219" s="1" t="str">
         <v>-8</v>
       </c>
@@ -1103,6 +1244,9 @@
       <c r="A224" s="1" t="str">
         <v>212043</v>
       </c>
+      <c r="C224" s="1" t="str">
+        <v>-8</v>
+      </c>
       <c r="F224" s="1" t="str">
         <v>-8</v>
       </c>
@@ -1116,6 +1260,9 @@
       <c r="A229" s="1" t="str">
         <v>212044</v>
       </c>
+      <c r="C229" s="1" t="str">
+        <v>-8</v>
+      </c>
       <c r="F229" s="1" t="str">
         <v>-8</v>
       </c>
@@ -1129,6 +1276,9 @@
       <c r="A234" s="1" t="str">
         <v>212045</v>
       </c>
+      <c r="C234" s="1" t="str">
+        <v>-8</v>
+      </c>
       <c r="F234" s="1" t="str">
         <v>-8</v>
       </c>
@@ -1142,6 +1292,9 @@
       <c r="A239" s="1" t="str">
         <v>212046</v>
       </c>
+      <c r="C239" s="1" t="str">
+        <v>-8</v>
+      </c>
       <c r="F239" s="1" t="str">
         <v>-8</v>
       </c>
@@ -1155,6 +1308,9 @@
       <c r="A244" s="1" t="str">
         <v>212047</v>
       </c>
+      <c r="C244" s="1" t="str">
+        <v>-8</v>
+      </c>
       <c r="F244" s="1" t="str">
         <v>-8</v>
       </c>
@@ -1168,6 +1324,9 @@
       <c r="A249" s="1" t="str">
         <v>212048</v>
       </c>
+      <c r="C249" s="1" t="str">
+        <v>-8</v>
+      </c>
       <c r="F249" s="1" t="str">
         <v>-8</v>
       </c>
@@ -1181,6 +1340,9 @@
       <c r="A254" s="1" t="str">
         <v>212049</v>
       </c>
+      <c r="C254" s="1" t="str">
+        <v>-8</v>
+      </c>
       <c r="F254" s="1" t="str">
         <v>-8</v>
       </c>
@@ -1194,6 +1356,9 @@
       <c r="A259" s="1" t="str">
         <v>212050</v>
       </c>
+      <c r="C259" s="1" t="str">
+        <v>-8</v>
+      </c>
       <c r="F259" s="1" t="str">
         <v>-8</v>
       </c>
@@ -1207,6 +1372,9 @@
       <c r="A264" s="1" t="str">
         <v>212051</v>
       </c>
+      <c r="C264" s="1" t="str">
+        <v>10</v>
+      </c>
       <c r="F264" s="1" t="str">
         <v>-8</v>
       </c>
@@ -1220,6 +1388,9 @@
       <c r="A269" s="1" t="str">
         <v>212052</v>
       </c>
+      <c r="C269" s="1" t="str">
+        <v>-8</v>
+      </c>
       <c r="F269" s="1" t="str">
         <v>-8</v>
       </c>
@@ -1233,6 +1404,9 @@
       <c r="A274" s="1" t="str">
         <v>212053</v>
       </c>
+      <c r="C274" s="1" t="str">
+        <v>-8</v>
+      </c>
       <c r="F274" s="1" t="str">
         <v>-8</v>
       </c>
@@ -1246,6 +1420,9 @@
       <c r="A279" s="1" t="str">
         <v>212054</v>
       </c>
+      <c r="C279" s="1" t="str">
+        <v>10</v>
+      </c>
       <c r="F279" s="1" t="str">
         <v>-8</v>
       </c>
@@ -1259,6 +1436,9 @@
       <c r="A284" s="1" t="str">
         <v>212055</v>
       </c>
+      <c r="C284" s="1" t="str">
+        <v>-8</v>
+      </c>
       <c r="F284" s="1" t="str">
         <v>-8</v>
       </c>
@@ -1272,6 +1452,9 @@
       <c r="A289" s="1" t="str">
         <v>212056</v>
       </c>
+      <c r="C289" s="1" t="str">
+        <v>-8</v>
+      </c>
       <c r="F289" s="1" t="str">
         <v>-8</v>
       </c>
@@ -1285,6 +1468,9 @@
       <c r="A294" s="1" t="str">
         <v>212057</v>
       </c>
+      <c r="C294" s="1" t="str">
+        <v>-8</v>
+      </c>
       <c r="F294" s="1" t="str">
         <v>-8</v>
       </c>
@@ -1298,6 +1484,9 @@
       <c r="A299" s="1" t="str">
         <v>212058</v>
       </c>
+      <c r="C299" s="1" t="str">
+        <v>-8</v>
+      </c>
       <c r="F299" s="1" t="str">
         <v>-8</v>
       </c>
@@ -1311,12 +1500,124 @@
       <c r="A304" s="1" t="str">
         <v>212059</v>
       </c>
+      <c r="C304" s="1" t="str">
+        <v>-8</v>
+      </c>
       <c r="F304" s="1" t="str">
         <v>-8</v>
       </c>
     </row>
     <row r="305">
       <c r="F305" s="1" t="str">
+        <v>-8/-8</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="str">
+        <v>212098</v>
+      </c>
+      <c r="C309" s="1" t="str">
+        <v>12</v>
+      </c>
+      <c r="D309" s="1" t="str">
+        <v>18</v>
+      </c>
+      <c r="E309" s="1" t="str">
+        <v>20</v>
+      </c>
+      <c r="F309" s="1" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="C310" s="1" t="str">
+        <v>25/-8</v>
+      </c>
+      <c r="D310" s="1" t="str">
+        <v>35/5</v>
+      </c>
+      <c r="E310" s="1" t="str">
+        <v>40/6</v>
+      </c>
+      <c r="F310" s="1" t="str">
+        <v>45/7</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="str">
+        <v>212100</v>
+      </c>
+      <c r="C314" s="1" t="str">
+        <v>12</v>
+      </c>
+      <c r="D314" s="1" t="str">
+        <v>16</v>
+      </c>
+      <c r="E314" s="1" t="str">
+        <v>18</v>
+      </c>
+      <c r="F314" s="1" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="C315" s="1" t="str">
+        <v>22/-8</v>
+      </c>
+      <c r="D315" s="1" t="str">
+        <v>32/4</v>
+      </c>
+      <c r="E315" s="1" t="str">
+        <v>38/5</v>
+      </c>
+      <c r="F315" s="1" t="str">
+        <v>42/6</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="str">
+        <v>212101</v>
+      </c>
+      <c r="C319" s="1" t="str">
+        <v>20</v>
+      </c>
+      <c r="D319" s="1" t="str">
+        <v>12</v>
+      </c>
+      <c r="E319" s="1" t="str">
+        <v>16</v>
+      </c>
+      <c r="F319" s="1" t="str">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="C320" s="1" t="str">
+        <v>18/-8</v>
+      </c>
+      <c r="D320" s="1" t="str">
+        <v>28/3</v>
+      </c>
+      <c r="E320" s="1" t="str">
+        <v>32/4</v>
+      </c>
+      <c r="F320" s="1" t="str">
+        <v>35/5</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="str">
+        <v>222012</v>
+      </c>
+      <c r="C324" s="1" t="str">
+        <v>-8</v>
+      </c>
+      <c r="F324" s="1" t="str">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="F325" s="1" t="str">
         <v>-8/-8</v>
       </c>
     </row>

--- a/backend/temp2.xlsx
+++ b/backend/temp2.xlsx
@@ -557,33 +557,11 @@
       <c r="A14" s="1" t="str">
         <v>212001</v>
       </c>
-      <c r="C14" s="1" t="str">
-        <v>10</v>
-      </c>
-      <c r="F14" s="1" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="F15" s="1" t="str">
-        <v>-8/-8</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="str">
         <v>212002</v>
       </c>
-      <c r="C19" s="1" t="str">
-        <v>2</v>
-      </c>
-      <c r="F19" s="1" t="str">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="F20" s="1" t="str">
-        <v>-8/-8</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="str">
@@ -593,7 +571,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="1" t="str">
-        <v>11</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="25">
@@ -603,13 +581,13 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="str">
-        <v>212004</v>
+        <v>212006</v>
       </c>
       <c r="C29" s="1" t="str">
-        <v>10</v>
+        <v>-8</v>
       </c>
       <c r="F29" s="1" t="str">
-        <v>21</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="30">
@@ -619,10 +597,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="str">
-        <v>212005</v>
+        <v>212007</v>
       </c>
       <c r="C34" s="1" t="str">
-        <v>5</v>
+        <v>-8</v>
       </c>
       <c r="F34" s="1" t="str">
         <v>-8</v>
@@ -635,7 +613,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="str">
-        <v>212006</v>
+        <v>212008</v>
       </c>
       <c r="C39" s="1" t="str">
         <v>-8</v>
@@ -651,7 +629,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="str">
-        <v>212007</v>
+        <v>212009</v>
       </c>
       <c r="C44" s="1" t="str">
         <v>-8</v>
@@ -667,7 +645,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="str">
-        <v>212008</v>
+        <v>212010</v>
       </c>
       <c r="C49" s="1" t="str">
         <v>-8</v>
@@ -683,7 +661,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="str">
-        <v>212009</v>
+        <v>212011</v>
       </c>
       <c r="C54" s="1" t="str">
         <v>-8</v>
@@ -699,7 +677,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="str">
-        <v>212010</v>
+        <v>212012</v>
       </c>
       <c r="C59" s="1" t="str">
         <v>-8</v>
@@ -715,23 +693,38 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="str">
-        <v>212011</v>
+        <v>212013</v>
       </c>
       <c r="C64" s="1" t="str">
-        <v>-8</v>
+        <v>16</v>
+      </c>
+      <c r="D64" s="1" t="str">
+        <v>10</v>
+      </c>
+      <c r="E64" s="1" t="str">
+        <v>19</v>
       </c>
       <c r="F64" s="1" t="str">
-        <v>-8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65">
+      <c r="C65" s="1" t="str">
+        <v>45/5</v>
+      </c>
+      <c r="D65" s="1" t="str">
+        <v>20/2</v>
+      </c>
+      <c r="E65" s="1" t="str">
+        <v>12/4</v>
+      </c>
       <c r="F65" s="1" t="str">
-        <v>-8/-8</v>
+        <v>46/3</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="str">
-        <v>212012</v>
+        <v>212014</v>
       </c>
       <c r="C69" s="1" t="str">
         <v>-8</v>
@@ -747,38 +740,23 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="str">
-        <v>212013</v>
+        <v>212015</v>
       </c>
       <c r="C74" s="1" t="str">
-        <v>16</v>
-      </c>
-      <c r="D74" s="1" t="str">
-        <v>15</v>
-      </c>
-      <c r="E74" s="1" t="str">
-        <v>18</v>
+        <v>-8</v>
       </c>
       <c r="F74" s="1" t="str">
-        <v>20</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="75">
-      <c r="C75" s="1" t="str">
-        <v>20/-8</v>
-      </c>
-      <c r="D75" s="1" t="str">
-        <v>30/4</v>
-      </c>
-      <c r="E75" s="1" t="str">
-        <v>35/5</v>
-      </c>
       <c r="F75" s="1" t="str">
-        <v>40/6</v>
+        <v>-8/-8</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="str">
-        <v>212014</v>
+        <v>212016</v>
       </c>
       <c r="C79" s="1" t="str">
         <v>-8</v>
@@ -794,7 +772,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="str">
-        <v>212015</v>
+        <v>212017</v>
       </c>
       <c r="C84" s="1" t="str">
         <v>-8</v>
@@ -810,7 +788,7 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="str">
-        <v>212016</v>
+        <v>212018</v>
       </c>
       <c r="C89" s="1" t="str">
         <v>-8</v>
@@ -826,7 +804,7 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="str">
-        <v>212017</v>
+        <v>212019</v>
       </c>
       <c r="C94" s="1" t="str">
         <v>-8</v>
@@ -842,7 +820,7 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="str">
-        <v>212018</v>
+        <v>212020</v>
       </c>
       <c r="C99" s="1" t="str">
         <v>-8</v>
@@ -858,7 +836,7 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="str">
-        <v>212019</v>
+        <v>212021</v>
       </c>
       <c r="C104" s="1" t="str">
         <v>-8</v>
@@ -874,7 +852,7 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="str">
-        <v>212020</v>
+        <v>212022</v>
       </c>
       <c r="C109" s="1" t="str">
         <v>-8</v>
@@ -890,7 +868,7 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="str">
-        <v>212021</v>
+        <v>212023</v>
       </c>
       <c r="C114" s="1" t="str">
         <v>-8</v>
@@ -906,7 +884,7 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="str">
-        <v>212022</v>
+        <v>212024</v>
       </c>
       <c r="C119" s="1" t="str">
         <v>-8</v>
@@ -922,7 +900,7 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="str">
-        <v>212023</v>
+        <v>212025</v>
       </c>
       <c r="C124" s="1" t="str">
         <v>-8</v>
@@ -938,7 +916,7 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="str">
-        <v>212024</v>
+        <v>212026</v>
       </c>
       <c r="C129" s="1" t="str">
         <v>-8</v>
@@ -954,7 +932,7 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="str">
-        <v>212025</v>
+        <v>212027</v>
       </c>
       <c r="C134" s="1" t="str">
         <v>-8</v>
@@ -970,7 +948,7 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="str">
-        <v>212026</v>
+        <v>212028</v>
       </c>
       <c r="C139" s="1" t="str">
         <v>-8</v>
@@ -986,7 +964,7 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="str">
-        <v>212027</v>
+        <v>212029</v>
       </c>
       <c r="C144" s="1" t="str">
         <v>-8</v>
@@ -1002,7 +980,7 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="str">
-        <v>212028</v>
+        <v>212030</v>
       </c>
       <c r="C149" s="1" t="str">
         <v>-8</v>
@@ -1018,7 +996,7 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="str">
-        <v>212029</v>
+        <v>212031</v>
       </c>
       <c r="C154" s="1" t="str">
         <v>-8</v>
@@ -1034,7 +1012,7 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="str">
-        <v>212030</v>
+        <v>212032</v>
       </c>
       <c r="C159" s="1" t="str">
         <v>-8</v>
@@ -1050,7 +1028,7 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="str">
-        <v>212031</v>
+        <v>212033</v>
       </c>
       <c r="C164" s="1" t="str">
         <v>-8</v>
@@ -1066,7 +1044,7 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="str">
-        <v>212032</v>
+        <v>212034</v>
       </c>
       <c r="C169" s="1" t="str">
         <v>-8</v>
@@ -1082,7 +1060,7 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="str">
-        <v>212033</v>
+        <v>212035</v>
       </c>
       <c r="C174" s="1" t="str">
         <v>-8</v>
@@ -1098,7 +1076,7 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="str">
-        <v>212034</v>
+        <v>212036</v>
       </c>
       <c r="C179" s="1" t="str">
         <v>-8</v>
@@ -1114,7 +1092,7 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="str">
-        <v>212035</v>
+        <v>212037</v>
       </c>
       <c r="C184" s="1" t="str">
         <v>-8</v>
@@ -1130,7 +1108,7 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="str">
-        <v>212036</v>
+        <v>212038</v>
       </c>
       <c r="C189" s="1" t="str">
         <v>-8</v>
@@ -1146,7 +1124,7 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="str">
-        <v>212037</v>
+        <v>212039</v>
       </c>
       <c r="C194" s="1" t="str">
         <v>-8</v>
@@ -1162,7 +1140,7 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="str">
-        <v>212038</v>
+        <v>212040</v>
       </c>
       <c r="C199" s="1" t="str">
         <v>-8</v>
@@ -1178,7 +1156,7 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="str">
-        <v>212039</v>
+        <v>212041</v>
       </c>
       <c r="C204" s="1" t="str">
         <v>-8</v>
@@ -1194,7 +1172,7 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="str">
-        <v>212040</v>
+        <v>212042</v>
       </c>
       <c r="C209" s="1" t="str">
         <v>-8</v>
@@ -1210,7 +1188,7 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="str">
-        <v>212041</v>
+        <v>212043</v>
       </c>
       <c r="C214" s="1" t="str">
         <v>-8</v>
@@ -1226,7 +1204,7 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="str">
-        <v>212042</v>
+        <v>212044</v>
       </c>
       <c r="C219" s="1" t="str">
         <v>-8</v>
@@ -1242,7 +1220,7 @@
     </row>
     <row r="224">
       <c r="A224" s="1" t="str">
-        <v>212043</v>
+        <v>212045</v>
       </c>
       <c r="C224" s="1" t="str">
         <v>-8</v>
@@ -1258,7 +1236,7 @@
     </row>
     <row r="229">
       <c r="A229" s="1" t="str">
-        <v>212044</v>
+        <v>212046</v>
       </c>
       <c r="C229" s="1" t="str">
         <v>-8</v>
@@ -1274,7 +1252,7 @@
     </row>
     <row r="234">
       <c r="A234" s="1" t="str">
-        <v>212045</v>
+        <v>212047</v>
       </c>
       <c r="C234" s="1" t="str">
         <v>-8</v>
@@ -1290,7 +1268,7 @@
     </row>
     <row r="239">
       <c r="A239" s="1" t="str">
-        <v>212046</v>
+        <v>212048</v>
       </c>
       <c r="C239" s="1" t="str">
         <v>-8</v>
@@ -1306,7 +1284,7 @@
     </row>
     <row r="244">
       <c r="A244" s="1" t="str">
-        <v>212047</v>
+        <v>212049</v>
       </c>
       <c r="C244" s="1" t="str">
         <v>-8</v>
@@ -1322,7 +1300,7 @@
     </row>
     <row r="249">
       <c r="A249" s="1" t="str">
-        <v>212048</v>
+        <v>212050</v>
       </c>
       <c r="C249" s="1" t="str">
         <v>-8</v>
@@ -1338,10 +1316,10 @@
     </row>
     <row r="254">
       <c r="A254" s="1" t="str">
-        <v>212049</v>
+        <v>212051</v>
       </c>
       <c r="C254" s="1" t="str">
-        <v>-8</v>
+        <v>10</v>
       </c>
       <c r="F254" s="1" t="str">
         <v>-8</v>
@@ -1354,7 +1332,7 @@
     </row>
     <row r="259">
       <c r="A259" s="1" t="str">
-        <v>212050</v>
+        <v>212052</v>
       </c>
       <c r="C259" s="1" t="str">
         <v>-8</v>
@@ -1370,10 +1348,10 @@
     </row>
     <row r="264">
       <c r="A264" s="1" t="str">
-        <v>212051</v>
+        <v>212053</v>
       </c>
       <c r="C264" s="1" t="str">
-        <v>10</v>
+        <v>-8</v>
       </c>
       <c r="F264" s="1" t="str">
         <v>-8</v>
@@ -1386,10 +1364,10 @@
     </row>
     <row r="269">
       <c r="A269" s="1" t="str">
-        <v>212052</v>
+        <v>212054</v>
       </c>
       <c r="C269" s="1" t="str">
-        <v>-8</v>
+        <v>10</v>
       </c>
       <c r="F269" s="1" t="str">
         <v>-8</v>
@@ -1402,7 +1380,7 @@
     </row>
     <row r="274">
       <c r="A274" s="1" t="str">
-        <v>212053</v>
+        <v>212055</v>
       </c>
       <c r="C274" s="1" t="str">
         <v>-8</v>
@@ -1418,10 +1396,10 @@
     </row>
     <row r="279">
       <c r="A279" s="1" t="str">
-        <v>212054</v>
+        <v>212056</v>
       </c>
       <c r="C279" s="1" t="str">
-        <v>10</v>
+        <v>-8</v>
       </c>
       <c r="F279" s="1" t="str">
         <v>-8</v>
@@ -1434,7 +1412,7 @@
     </row>
     <row r="284">
       <c r="A284" s="1" t="str">
-        <v>212055</v>
+        <v>212057</v>
       </c>
       <c r="C284" s="1" t="str">
         <v>-8</v>
@@ -1450,7 +1428,7 @@
     </row>
     <row r="289">
       <c r="A289" s="1" t="str">
-        <v>212056</v>
+        <v>212058</v>
       </c>
       <c r="C289" s="1" t="str">
         <v>-8</v>
@@ -1466,7 +1444,7 @@
     </row>
     <row r="294">
       <c r="A294" s="1" t="str">
-        <v>212057</v>
+        <v>212059</v>
       </c>
       <c r="C294" s="1" t="str">
         <v>-8</v>
@@ -1482,142 +1460,110 @@
     </row>
     <row r="299">
       <c r="A299" s="1" t="str">
-        <v>212058</v>
+        <v>212098</v>
       </c>
       <c r="C299" s="1" t="str">
-        <v>-8</v>
+        <v>12</v>
+      </c>
+      <c r="D299" s="1" t="str">
+        <v>10</v>
+      </c>
+      <c r="E299" s="1" t="str">
+        <v>20</v>
       </c>
       <c r="F299" s="1" t="str">
-        <v>-8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="300">
+      <c r="C300" s="1" t="str">
+        <v>45/3</v>
+      </c>
+      <c r="D300" s="1" t="str">
+        <v>35/2</v>
+      </c>
+      <c r="E300" s="1" t="str">
+        <v>34/4</v>
+      </c>
       <c r="F300" s="1" t="str">
-        <v>-8/-8</v>
+        <v>39/5</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="str">
-        <v>212059</v>
+        <v>212100</v>
       </c>
       <c r="C304" s="1" t="str">
-        <v>-8</v>
+        <v>12</v>
+      </c>
+      <c r="D304" s="1" t="str">
+        <v>10</v>
+      </c>
+      <c r="E304" s="1" t="str">
+        <v>20</v>
       </c>
       <c r="F304" s="1" t="str">
-        <v>-8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="305">
+      <c r="C305" s="1" t="str">
+        <v>37/5</v>
+      </c>
+      <c r="D305" s="1" t="str">
+        <v>32/2</v>
+      </c>
+      <c r="E305" s="1" t="str">
+        <v>50/3</v>
+      </c>
       <c r="F305" s="1" t="str">
-        <v>-8/-8</v>
+        <v>46/3</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="str">
-        <v>212098</v>
+        <v>212101</v>
       </c>
       <c r="C309" s="1" t="str">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D309" s="1" t="str">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E309" s="1" t="str">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F309" s="1" t="str">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="310">
       <c r="C310" s="1" t="str">
-        <v>25/-8</v>
+        <v>46/2</v>
       </c>
       <c r="D310" s="1" t="str">
-        <v>35/5</v>
+        <v>30/3</v>
       </c>
       <c r="E310" s="1" t="str">
-        <v>40/6</v>
+        <v>45/5</v>
       </c>
       <c r="F310" s="1" t="str">
-        <v>45/7</v>
+        <v>40/4</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="str">
-        <v>212100</v>
+        <v>222012</v>
       </c>
       <c r="C314" s="1" t="str">
-        <v>12</v>
-      </c>
-      <c r="D314" s="1" t="str">
-        <v>16</v>
-      </c>
-      <c r="E314" s="1" t="str">
-        <v>18</v>
+        <v>-8</v>
       </c>
       <c r="F314" s="1" t="str">
-        <v>20</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="315">
-      <c r="C315" s="1" t="str">
-        <v>22/-8</v>
-      </c>
-      <c r="D315" s="1" t="str">
-        <v>32/4</v>
-      </c>
-      <c r="E315" s="1" t="str">
-        <v>38/5</v>
-      </c>
       <c r="F315" s="1" t="str">
-        <v>42/6</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="str">
-        <v>212101</v>
-      </c>
-      <c r="C319" s="1" t="str">
-        <v>20</v>
-      </c>
-      <c r="D319" s="1" t="str">
-        <v>12</v>
-      </c>
-      <c r="E319" s="1" t="str">
-        <v>16</v>
-      </c>
-      <c r="F319" s="1" t="str">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="C320" s="1" t="str">
-        <v>18/-8</v>
-      </c>
-      <c r="D320" s="1" t="str">
-        <v>28/3</v>
-      </c>
-      <c r="E320" s="1" t="str">
-        <v>32/4</v>
-      </c>
-      <c r="F320" s="1" t="str">
-        <v>35/5</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" s="1" t="str">
-        <v>222012</v>
-      </c>
-      <c r="C324" s="1" t="str">
-        <v>-8</v>
-      </c>
-      <c r="F324" s="1" t="str">
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="F325" s="1" t="str">
         <v>-8/-8</v>
       </c>
     </row>

--- a/backend/temp2.xlsx
+++ b/backend/temp2.xlsx
@@ -1463,7 +1463,7 @@
         <v>212098</v>
       </c>
       <c r="C299" s="1" t="str">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D299" s="1" t="str">
         <v>10</v>
@@ -1494,7 +1494,7 @@
         <v>212100</v>
       </c>
       <c r="C304" s="1" t="str">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D304" s="1" t="str">
         <v>10</v>
@@ -1525,7 +1525,7 @@
         <v>212101</v>
       </c>
       <c r="C309" s="1" t="str">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D309" s="1" t="str">
         <v>14</v>

--- a/backend/temp2.xlsx
+++ b/backend/temp2.xlsx
@@ -557,10 +557,16 @@
       <c r="A14" s="1" t="str">
         <v>212013</v>
       </c>
+      <c r="C14" s="1" t="str">
+        <v>67         20              87</v>
+      </c>
+      <c r="F14" s="1" t="str">
+        <v>56         18              74</v>
+      </c>
     </row>
     <row r="15">
       <c r="C15" s="1" t="str">
-        <v>-8/-8</v>
+        <v>23/15</v>
       </c>
       <c r="D15" s="1" t="str">
         <v>39/9</v>
@@ -569,36 +575,48 @@
         <v>12/23</v>
       </c>
       <c r="F15" s="1" t="str">
-        <v>46/18</v>
+        <v>24/4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="str">
         <v>212098</v>
       </c>
+      <c r="C21" s="1" t="str">
+        <v>20         12              32</v>
+      </c>
+      <c r="F21" s="1" t="str">
+        <v>63         18              81</v>
+      </c>
     </row>
     <row r="22">
       <c r="C22" s="1" t="str">
-        <v>-8/-8</v>
+        <v>29/24</v>
       </c>
       <c r="D22" s="1" t="str">
-        <v>-8/9</v>
+        <v>-8/11</v>
       </c>
       <c r="E22" s="1" t="str">
         <v>34/24</v>
       </c>
       <c r="F22" s="1" t="str">
-        <v>39/20</v>
+        <v>23/25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="str">
         <v>212100</v>
       </c>
+      <c r="C28" s="1" t="str">
+        <v>79         19              98</v>
+      </c>
+      <c r="F28" s="1" t="str">
+        <v>65         13              78</v>
+      </c>
     </row>
     <row r="29">
       <c r="C29" s="1" t="str">
-        <v>-8/-8</v>
+        <v>43/16</v>
       </c>
       <c r="D29" s="1" t="str">
         <v>32/22</v>
@@ -607,17 +625,23 @@
         <v>50/23</v>
       </c>
       <c r="F29" s="1" t="str">
-        <v>46/16</v>
+        <v>45/18</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="str">
         <v>212101</v>
       </c>
+      <c r="C35" s="1" t="str">
+        <v>65         4              69</v>
+      </c>
+      <c r="F35" s="1" t="str">
+        <v>43         20              63</v>
+      </c>
     </row>
     <row r="36">
       <c r="C36" s="1" t="str">
-        <v>-8/-8</v>
+        <v>no data</v>
       </c>
       <c r="D36" s="1" t="str">
         <v>12/17</v>
@@ -626,7 +650,7 @@
         <v>45/21</v>
       </c>
       <c r="F36" s="1" t="str">
-        <v>40/23</v>
+        <v>50/15</v>
       </c>
     </row>
   </sheetData>
